--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0436FC39-8C91-4A56-9904-39327977D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0EB44C-0D9B-4D73-BF20-45DD7B5788D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -381,19 +381,87 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>effect_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1001,flag_1002</t>
+    <t>*flag_conditions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>has#default=true</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alive#default=true</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_parent#default=false</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在父根中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小出现时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大出现时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,config.FlagCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -553,6 +621,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -563,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -606,7 +683,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -887,7 +976,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,8 +984,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="6" max="17" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -933,14 +1021,14 @@
       <c r="K1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="L1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -961,12 +1049,24 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="L2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -987,8 +1087,8 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -1033,14 +1133,14 @@
       <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="L4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -1096,11 +1196,21 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="3"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="M6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -1130,14 +1240,17 @@
       <c r="I7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>82</v>
+      <c r="K7" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1145,18 +1258,60 @@
       <c r="C8" s="5"/>
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
@@ -1194,6 +1349,10 @@
       <c r="E17" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L4:Q4"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0EB44C-0D9B-4D73-BF20-45DD7B5788D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E50DA-FDD5-4EB6-B544-56B86DA2974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -381,6 +381,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>active_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>*flag_conditions</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -462,6 +470,14 @@
   </si>
   <si>
     <t>char_icon_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活的flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_101,flag_102</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -689,6 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,6 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -976,7 +994,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,7 +1002,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="17" width="12.625" customWidth="1"/>
+    <col min="6" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1022,14 +1040,16 @@
         <v>81</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
-      <c r="R1"/>
+      <c r="R1" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -1050,22 +1070,22 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
@@ -1133,15 +1153,17 @@
       <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4"/>
+      <c r="L4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -1197,21 +1219,23 @@
       <c r="K6"/>
       <c r="L6" s="3"/>
       <c r="M6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6"/>
+      <c r="Q6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -1244,13 +1268,16 @@
         <v>80</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1259,7 +1286,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1277,7 +1304,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1285,14 +1312,14 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1310,7 +1337,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E50DA-FDD5-4EB6-B544-56B86DA2974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A55122-B7C9-415F-B473-F64EAE4AD6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>##var</t>
   </si>
@@ -425,6 +425,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>最小出现时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -478,6 +482,14 @@
   </si>
   <si>
     <t>flag_101,flag_102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_tree_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_tree_time#default=-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -714,6 +726,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -991,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,10 +1016,10 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="18" width="12.625" customWidth="1"/>
+    <col min="6" max="20" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,23 +1053,29 @@
       <c r="K1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="S1"/>
-      <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W1"/>
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1069,31 +1089,33 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R2"/>
-      <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1107,10 +1129,10 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1118,8 +1140,10 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1153,23 +1177,29 @@
       <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="L4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="S4"/>
-      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1185,9 +1215,9 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="4"/>
+      <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
+      <c r="N5" s="4"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1196,8 +1226,10 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1217,31 +1249,33 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="T6" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="U6"/>
       <c r="V6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
@@ -1268,58 +1302,60 @@
         <v>80</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="b">
+        <v>101</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T7" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" t="b">
+      <c r="N8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="b">
         <v>1</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" t="b">
+      <c r="N9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1337,33 +1373,39 @@
         <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L10" s="5">
+        <v>10</v>
+      </c>
+      <c r="M10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="16"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1377,8 +1419,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N4:S4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A55122-B7C9-415F-B473-F64EAE4AD6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8D06E-2017-4EAE-AB33-5D1512797FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
   <si>
     <t>##var</t>
   </si>
@@ -490,6 +490,346 @@
   </si>
   <si>
     <t>max_tree_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈名</t>
+  </si>
+  <si>
+    <t>依赖</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>舅妈名</t>
+  </si>
+  <si>
+    <t>陌生</t>
+  </si>
+  <si>
+    <t>舅妈</t>
+  </si>
+  <si>
+    <t>父亲名</t>
+  </si>
+  <si>
+    <t>好奇</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>同学</t>
+  </si>
+  <si>
+    <t>布娃娃</t>
+  </si>
+  <si>
+    <t>超喜欢</t>
+  </si>
+  <si>
+    <t>甘的礼物</t>
+  </si>
+  <si>
+    <t>小学老师名</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>思念</t>
+  </si>
+  <si>
+    <t>害怕</t>
+  </si>
+  <si>
+    <t>熟悉</t>
+  </si>
+  <si>
+    <t>舅舅名</t>
+  </si>
+  <si>
+    <t>舅舅</t>
+  </si>
+  <si>
+    <t>小京</t>
+  </si>
+  <si>
+    <t>甘的猫咪</t>
+  </si>
+  <si>
+    <t>二舅妈名</t>
+  </si>
+  <si>
+    <t>二舅妈</t>
+  </si>
+  <si>
+    <t>疏远</t>
+  </si>
+  <si>
+    <t>二舅舅名</t>
+  </si>
+  <si>
+    <t>二舅舅</t>
+  </si>
+  <si>
+    <t>？？</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+  </si>
+  <si>
+    <t>陌生人</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>米奇</t>
+  </si>
+  <si>
+    <t>char_1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1005</t>
+  </si>
+  <si>
+    <t>char_1007</t>
+  </si>
+  <si>
+    <t>char_1008</t>
+  </si>
+  <si>
+    <t>char_1009</t>
+  </si>
+  <si>
+    <t>char_1010</t>
+  </si>
+  <si>
+    <t>char_1011</t>
+  </si>
+  <si>
+    <t>char_1012</t>
+  </si>
+  <si>
+    <t>char_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+  </si>
+  <si>
+    <t>char_1016</t>
+  </si>
+  <si>
+    <t>char_1017</t>
+  </si>
+  <si>
+    <t>char_1018</t>
+  </si>
+  <si>
+    <t>char_1020</t>
+  </si>
+  <si>
+    <t>char_1021</t>
+  </si>
+  <si>
+    <t>char_1022</t>
+  </si>
+  <si>
+    <t>char_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1004</t>
+  </si>
+  <si>
+    <t>flag_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1009</t>
+  </si>
+  <si>
+    <t>flag_1010</t>
+  </si>
+  <si>
+    <t>flag_1011</t>
+  </si>
+  <si>
+    <t>flag_1012</t>
+  </si>
+  <si>
+    <t>flag_1013</t>
+  </si>
+  <si>
+    <t>flag_1014</t>
+  </si>
+  <si>
+    <t>flag_1016</t>
+  </si>
+  <si>
+    <t>flag_1017</t>
+  </si>
+  <si>
+    <t>flag_1018</t>
+  </si>
+  <si>
+    <t>flag_1019</t>
+  </si>
+  <si>
+    <t>flag_1020</t>
+  </si>
+  <si>
+    <t>flag_1021</t>
+  </si>
+  <si>
+    <t>flag_1022</t>
+  </si>
+  <si>
+    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>char_1006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_101</t>
+  </si>
+  <si>
+    <t>flag_1007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_104</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_105</t>
+  </si>
+  <si>
+    <t>effect_106</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐老鸭</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1026</t>
+  </si>
+  <si>
+    <t>char_1027</t>
+  </si>
+  <si>
+    <t>effect_107</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1026</t>
+  </si>
+  <si>
+    <t>effect_109</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收银员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥大玩偶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>园长</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -699,6 +1039,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,23 +1067,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1005,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,10 +1393,10 @@
       <c r="K1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="20" t="s">
         <v>109</v>
       </c>
       <c r="N1" s="22" t="s">
@@ -1067,7 +1407,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="19" t="s">
         <v>82</v>
       </c>
       <c r="U1"/>
@@ -1177,21 +1517,21 @@
       <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="24" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="18" t="s">
         <v>83</v>
       </c>
       <c r="U4"/>
@@ -1261,13 +1601,13 @@
       <c r="Q6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="5" t="s">
         <v>106</v>
       </c>
       <c r="U6"/>
@@ -1387,35 +1727,979 @@
       <c r="C11" s="5"/>
       <c r="D11" s="16"/>
       <c r="E11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="T13" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
+      <c r="B14" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B16" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>10000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D33" s="16"/>
+      <c r="N33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D34" s="16"/>
+      <c r="N34" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>10000</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>10000</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" t="s">
+        <v>200</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1433,7 +2717,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1481,10 +2765,10 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1549,10 +2833,10 @@
       <c r="M3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8D06E-2017-4EAE-AB33-5D1512797FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D968DB89-AF27-46B4-8D3B-160CC1F63723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
   <si>
     <t>##var</t>
   </si>
@@ -397,14 +397,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>min_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>has#default=true</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -429,30 +421,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>最小出现时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大出现时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存活</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_102</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>list,config.FlagCondition</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -481,10 +449,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>flag_101,flag_102</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>min_tree_time#default=-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -830,6 +794,38 @@
   </si>
   <si>
     <t>园长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1001,flag_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活，has=false不判断这个</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1067,7 +1063,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1345,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,10 +1351,13 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="20" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="13" width="4.625" customWidth="1"/>
+    <col min="14" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1394,10 +1392,10 @@
         <v>81</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>84</v>
@@ -1406,16 +1404,15 @@
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>82</v>
       </c>
+      <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-      <c r="X1"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1435,27 +1432,24 @@
         <v>85</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1481,9 +1475,8 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1518,28 +1511,27 @@
         <v>52</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>83</v>
       </c>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1567,9 +1559,8 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1593,29 +1584,26 @@
       <c r="M6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
@@ -1642,27 +1630,27 @@
         <v>80</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S7" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1670,32 +1658,29 @@
       <c r="R8">
         <v>5</v>
       </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1713,7 +1698,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L10" s="5">
         <v>10</v>
@@ -1722,443 +1707,464 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>144</v>
+      <c r="E11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="T13" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>180</v>
+        <v>111</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10000</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="30" t="s">
-        <v>147</v>
+        <v>113</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>119</v>
+      <c r="S16" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
-      <c r="T18" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="30" t="s">
-        <v>150</v>
+      <c r="N18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="L19">
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>151</v>
+      <c r="S19" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
-        <v>153</v>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
-      <c r="N22" t="s">
-        <v>164</v>
-      </c>
-      <c r="R22">
-        <v>5</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
-        <v>154</v>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
-        <v>192</v>
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2167,148 +2173,145 @@
         <v>1000</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L24">
         <v>20</v>
       </c>
-      <c r="T24" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
-        <v>155</v>
+      <c r="N24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>193</v>
+        <v>126</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
-        <v>156</v>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="N26" t="s">
-        <v>168</v>
-      </c>
       <c r="O26" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
-        <v>157</v>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O27" t="b">
-        <v>1</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
-        <v>205</v>
+        <v>105</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2317,169 +2320,151 @@
         <v>10000</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
       </c>
       <c r="L28">
         <v>30</v>
       </c>
-      <c r="T28" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
-        <v>158</v>
+      <c r="N28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>10000</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L29">
         <v>30</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
-      <c r="T29" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
-        <v>159</v>
+      <c r="S29" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L30">
         <v>30</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
-      <c r="T30" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
-        <v>160</v>
+      <c r="S30" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" t="s">
-        <v>140</v>
+        <v>153</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
-      <c r="T31" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>143</v>
-      </c>
+      <c r="S31" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
-      <c r="E32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K32" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32">
-        <v>30</v>
-      </c>
       <c r="N32" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
-      <c r="T32" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D33" s="16"/>
       <c r="N33" s="5" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2488,10 +2473,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
       <c r="D34" s="16"/>
+      <c r="E34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
       <c r="N34" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2499,17 +2514,23 @@
       <c r="Q34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
-        <v>208</v>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2518,46 +2539,37 @@
         <v>10000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L35">
         <v>30</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>5</v>
-      </c>
-      <c r="T35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
-        <v>196</v>
+        <v>170</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2565,38 +2577,35 @@
       <c r="G36">
         <v>10000</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>213</v>
+      <c r="H36" t="s">
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L36">
         <v>30</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2605,34 +2614,37 @@
         <v>10000</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L37">
         <v>30</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2641,70 +2653,31 @@
         <v>10000</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L38">
         <v>30</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
-      <c r="T38" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>10000</v>
-      </c>
-      <c r="H39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39" t="s">
-        <v>200</v>
-      </c>
-      <c r="L39">
-        <v>30</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E40" s="5"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="N4:R4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D968DB89-AF27-46B4-8D3B-160CC1F63723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9283645-5CB5-4464-8287-E503DFF2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9283645-5CB5-4464-8287-E503DFF2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B4488-0F51-4415-9312-7D0BE8806C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19485" yWindow="990" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
   <si>
     <t>##var</t>
   </si>
@@ -333,500 +333,546 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*flag_conditions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>has#default=true</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alive#default=true</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_parent#default=false</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须在父根中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,config.FlagCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活的flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_tree_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_tree_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈名</t>
+  </si>
+  <si>
+    <t>依赖</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>陌生</t>
+  </si>
+  <si>
+    <t>舅妈</t>
+  </si>
+  <si>
+    <t>父亲名</t>
+  </si>
+  <si>
+    <t>好奇</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>同学</t>
+  </si>
+  <si>
+    <t>布娃娃</t>
+  </si>
+  <si>
+    <t>超喜欢</t>
+  </si>
+  <si>
+    <t>甘的礼物</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>思念</t>
+  </si>
+  <si>
+    <t>害怕</t>
+  </si>
+  <si>
+    <t>熟悉</t>
+  </si>
+  <si>
+    <t>舅舅</t>
+  </si>
+  <si>
+    <t>小京</t>
+  </si>
+  <si>
+    <t>甘的猫咪</t>
+  </si>
+  <si>
+    <t>二舅妈名</t>
+  </si>
+  <si>
+    <t>二舅妈</t>
+  </si>
+  <si>
+    <t>疏远</t>
+  </si>
+  <si>
+    <t>二舅舅名</t>
+  </si>
+  <si>
+    <t>二舅舅</t>
+  </si>
+  <si>
+    <t>？？</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+  </si>
+  <si>
+    <t>陌生人</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>米奇</t>
+  </si>
+  <si>
+    <t>char_1005</t>
+  </si>
+  <si>
+    <t>char_1007</t>
+  </si>
+  <si>
+    <t>char_1008</t>
+  </si>
+  <si>
+    <t>char_1009</t>
+  </si>
+  <si>
+    <t>char_1010</t>
+  </si>
+  <si>
+    <t>char_1011</t>
+  </si>
+  <si>
+    <t>char_1012</t>
+  </si>
+  <si>
+    <t>char_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+  </si>
+  <si>
+    <t>char_1016</t>
+  </si>
+  <si>
+    <t>char_1017</t>
+  </si>
+  <si>
+    <t>char_1018</t>
+  </si>
+  <si>
+    <t>char_1020</t>
+  </si>
+  <si>
+    <t>char_1021</t>
+  </si>
+  <si>
+    <t>char_1022</t>
+  </si>
+  <si>
+    <t>char_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
+  </si>
+  <si>
+    <t>flag_1004</t>
+  </si>
+  <si>
+    <t>flag_1009</t>
+  </si>
+  <si>
+    <t>flag_1010</t>
+  </si>
+  <si>
+    <t>flag_1011</t>
+  </si>
+  <si>
+    <t>flag_1012</t>
+  </si>
+  <si>
+    <t>flag_1013</t>
+  </si>
+  <si>
+    <t>flag_1014</t>
+  </si>
+  <si>
+    <t>flag_1016</t>
+  </si>
+  <si>
+    <t>flag_1017</t>
+  </si>
+  <si>
+    <t>flag_1018</t>
+  </si>
+  <si>
+    <t>flag_1019</t>
+  </si>
+  <si>
+    <t>flag_1020</t>
+  </si>
+  <si>
+    <t>flag_1021</t>
+  </si>
+  <si>
+    <t>flag_1022</t>
+  </si>
+  <si>
+    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>effect_101</t>
+  </si>
+  <si>
+    <t>effect_104</t>
+  </si>
+  <si>
+    <t>effect_105</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1026</t>
+  </si>
+  <si>
+    <t>char_1027</t>
+  </si>
+  <si>
+    <t>effect_107</t>
+  </si>
+  <si>
+    <t>flag_1026</t>
+  </si>
+  <si>
+    <t>effect_109</t>
+  </si>
+  <si>
+    <t>has_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活，has=false不判断这个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>char_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>琪琪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>char_icon_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationship</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>朋友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>xxx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>job</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>学生</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>*flag_conditions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>has#default=true</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alive#default=true</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_parent#default=false</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须在父根中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,config.FlagCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1001</t>
+  </si>
+  <si>
+    <t>flag_1001,flag_1002</t>
+  </si>
+  <si>
+    <t>flag_1002</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
   </si>
   <si>
     <t>char_1002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>effect_102</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活的flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_tree_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_tree_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈妈名</t>
-  </si>
-  <si>
-    <t>依赖</t>
-  </si>
-  <si>
-    <t>母亲</t>
-  </si>
-  <si>
-    <t>舅妈名</t>
-  </si>
-  <si>
-    <t>陌生</t>
-  </si>
-  <si>
-    <t>舅妈</t>
-  </si>
-  <si>
-    <t>父亲名</t>
-  </si>
-  <si>
-    <t>好奇</t>
-  </si>
-  <si>
-    <t>父亲</t>
-  </si>
-  <si>
-    <t>甘</t>
-  </si>
-  <si>
-    <t>同学</t>
-  </si>
-  <si>
-    <t>布娃娃</t>
-  </si>
-  <si>
-    <t>超喜欢</t>
-  </si>
-  <si>
-    <t>甘的礼物</t>
-  </si>
-  <si>
-    <t>小学老师名</t>
-  </si>
-  <si>
-    <t>老师</t>
-  </si>
-  <si>
-    <t>思念</t>
-  </si>
-  <si>
-    <t>害怕</t>
-  </si>
-  <si>
-    <t>熟悉</t>
-  </si>
-  <si>
-    <t>舅舅名</t>
-  </si>
-  <si>
-    <t>舅舅</t>
-  </si>
-  <si>
-    <t>小京</t>
-  </si>
-  <si>
-    <t>甘的猫咪</t>
-  </si>
-  <si>
-    <t>二舅妈名</t>
-  </si>
-  <si>
-    <t>二舅妈</t>
-  </si>
-  <si>
-    <t>疏远</t>
-  </si>
-  <si>
-    <t>二舅舅名</t>
-  </si>
-  <si>
-    <t>二舅舅</t>
-  </si>
-  <si>
-    <t>？？</t>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-  </si>
-  <si>
-    <t>陌生人</t>
-  </si>
-  <si>
-    <t>恐惧</t>
-  </si>
-  <si>
-    <t>？？？</t>
-  </si>
-  <si>
-    <t>米奇</t>
   </si>
   <si>
     <t>char_1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
   </si>
   <si>
     <t>char_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1005</t>
-  </si>
-  <si>
-    <t>char_1007</t>
-  </si>
-  <si>
-    <t>char_1008</t>
-  </si>
-  <si>
-    <t>char_1009</t>
-  </si>
-  <si>
-    <t>char_1010</t>
-  </si>
-  <si>
-    <t>char_1011</t>
-  </si>
-  <si>
-    <t>char_1012</t>
-  </si>
-  <si>
-    <t>char_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-  </si>
-  <si>
-    <t>char_1016</t>
-  </si>
-  <si>
-    <t>char_1017</t>
-  </si>
-  <si>
-    <t>char_1018</t>
-  </si>
-  <si>
-    <t>char_1020</t>
-  </si>
-  <si>
-    <t>char_1021</t>
-  </si>
-  <si>
-    <t>char_1022</t>
-  </si>
-  <si>
-    <t>char_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1002</t>
-  </si>
-  <si>
-    <t>flag_1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1004</t>
-  </si>
-  <si>
-    <t>flag_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1009</t>
-  </si>
-  <si>
-    <t>flag_1010</t>
-  </si>
-  <si>
-    <t>flag_1011</t>
-  </si>
-  <si>
-    <t>flag_1012</t>
-  </si>
-  <si>
-    <t>flag_1013</t>
-  </si>
-  <si>
-    <t>flag_1014</t>
-  </si>
-  <si>
-    <t>flag_1016</t>
-  </si>
-  <si>
-    <t>flag_1017</t>
-  </si>
-  <si>
-    <t>flag_1018</t>
-  </si>
-  <si>
-    <t>flag_1019</t>
-  </si>
-  <si>
-    <t>flag_1020</t>
-  </si>
-  <si>
-    <t>flag_1021</t>
-  </si>
-  <si>
-    <t>flag_1022</t>
-  </si>
-  <si>
-    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+  </si>
+  <si>
+    <t>普鲁特</t>
+  </si>
+  <si>
+    <t>flag_1005</t>
   </si>
   <si>
     <t>char_1006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园同学</t>
   </si>
   <si>
     <t>flag_1006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_101</t>
   </si>
   <si>
     <t>flag_1007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无话不谈</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+  </si>
+  <si>
+    <t>罗菲</t>
+  </si>
+  <si>
+    <t>康拉</t>
   </si>
   <si>
     <t>effect_103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_104</t>
-  </si>
-  <si>
-    <t>flag_1008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_105</t>
+  </si>
+  <si>
+    <t>戴拉</t>
+  </si>
+  <si>
+    <t>卡雷尔</t>
+  </si>
+  <si>
+    <t>收银员</t>
   </si>
   <si>
     <t>effect_106</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>char_1015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐老鸭</t>
-  </si>
-  <si>
-    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>char_10232</t>
   </si>
   <si>
     <t>char_1024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>园长</t>
+  </si>
+  <si>
+    <t>亲近</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
   </si>
   <si>
     <t>char_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1026</t>
-  </si>
-  <si>
-    <t>char_1027</t>
-  </si>
-  <si>
-    <t>effect_107</t>
-  </si>
-  <si>
-    <t>flag_1024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1026</t>
-  </si>
-  <si>
-    <t>effect_109</t>
-  </si>
-  <si>
-    <t>char_1019</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1019</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_10232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1023</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收银员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉祥大玩偶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>园长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1001,flag_1002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存活，has=false不判断这个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎娜</t>
+  </si>
+  <si>
+    <t>char_1028</t>
+  </si>
+  <si>
+    <t>被二舅舅找到的结果</t>
+  </si>
+  <si>
+    <t>flag_1028</t>
+  </si>
+  <si>
+    <t>char_1029</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>flag_1029</t>
+  </si>
+  <si>
+    <t>char_1030</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>flag_1030</t>
+  </si>
+  <si>
+    <t>char_1031</t>
+  </si>
+  <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>char_1032</t>
+  </si>
+  <si>
+    <t>同学名1</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>混混名1</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>混混名2</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混名3</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>混混名4</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1374,38 +1420,38 @@
         <v>62</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="L1" s="20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
       <c r="S1" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T1"/>
       <c r="U1"/>
@@ -1429,19 +1475,19 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -1511,20 +1557,20 @@
         <v>52</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
       <c r="S4" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="T4"/>
       <c r="U4"/>
@@ -1584,19 +1630,19 @@
       <c r="M6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -1605,14 +1651,14 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1621,27 +1667,27 @@
         <v>100</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1650,7 +1696,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1665,7 +1711,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1673,14 +1719,14 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1689,16 +1735,16 @@
         <v>100</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="L10" s="5">
         <v>10</v>
@@ -1709,69 +1755,69 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1780,25 +1826,25 @@
         <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1807,28 +1853,28 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1837,13 +1883,13 @@
         <v>10000</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -1855,19 +1901,19 @@
         <v>1</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1876,31 +1922,31 @@
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1909,28 +1955,28 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1939,37 +1985,37 @@
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1978,37 +2024,37 @@
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19">
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2017,34 +2063,34 @@
         <v>100</v>
       </c>
       <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
         <v>106</v>
       </c>
-      <c r="I20" t="s">
-        <v>119</v>
-      </c>
       <c r="K20" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L20">
         <v>15</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2053,40 +2099,40 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="R21">
         <v>5</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2095,19 +2141,19 @@
         <v>10000</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M22">
         <v>30</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2119,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2140,31 +2186,31 @@
         <v>1000</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2173,19 +2219,19 @@
         <v>1000</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L24">
         <v>20</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2194,19 +2240,19 @@
         <v>1</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2215,16 +2261,16 @@
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2233,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2254,13 +2300,13 @@
         <v>1000</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2269,19 +2315,19 @@
         <v>1</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2290,28 +2336,28 @@
         <v>10000</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L27">
         <v>30</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2320,103 +2366,103 @@
         <v>10000</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="L28">
         <v>30</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="L29">
         <v>30</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="L30">
         <v>30</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2425,34 +2471,34 @@
         <v>10000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
       <c r="N32" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2464,7 +2510,7 @@
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D33" s="16"/>
       <c r="N33" s="5" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2475,14 +2521,14 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2491,22 +2537,22 @@
         <v>10000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L34">
         <v>30</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2518,19 +2564,19 @@
         <v>5</v>
       </c>
       <c r="S34" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2542,34 +2588,34 @@
         <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L35">
         <v>30</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2578,34 +2624,34 @@
         <v>10000</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L36">
         <v>30</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2614,37 +2660,37 @@
         <v>10000</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="L37">
         <v>30</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2653,26 +2699,430 @@
         <v>10000</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="L38">
         <v>30</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>152</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D40" s="16"/>
+      <c r="N40" t="s">
+        <v>148</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" t="s">
+        <v>212</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" t="s">
+        <v>217</v>
+      </c>
+      <c r="K42" t="s">
         <v>193</v>
       </c>
-      <c r="O38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E39" s="5"/>
+      <c r="N42" t="s">
+        <v>212</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" t="s">
+        <v>212</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" t="s">
+        <v>193</v>
+      </c>
+      <c r="N44" t="s">
+        <v>218</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>226</v>
+      </c>
+      <c r="I45" t="s">
+        <v>227</v>
+      </c>
+      <c r="N45" t="s">
+        <v>223</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" t="s">
+        <v>227</v>
+      </c>
+      <c r="N46" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" t="s">
+        <v>96</v>
+      </c>
+      <c r="N47" t="s">
+        <v>218</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
+        <v>193</v>
+      </c>
+      <c r="N48" t="s">
+        <v>231</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" t="s">
+        <v>235</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>234</v>
+      </c>
+      <c r="I50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" t="s">
+        <v>218</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89B4488-0F51-4415-9312-7D0BE8806C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94347F76-4C63-4A46-8CA7-5516FA2C09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19485" yWindow="990" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15090" yWindow="1140" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="258">
   <si>
     <t>##var</t>
   </si>
@@ -413,9 +413,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>妈妈名</t>
-  </si>
-  <si>
     <t>依赖</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>舅妈</t>
   </si>
   <si>
-    <t>父亲名</t>
-  </si>
-  <si>
     <t>好奇</t>
   </si>
   <si>
@@ -473,18 +467,12 @@
     <t>甘的猫咪</t>
   </si>
   <si>
-    <t>二舅妈名</t>
-  </si>
-  <si>
     <t>二舅妈</t>
   </si>
   <si>
     <t>疏远</t>
   </si>
   <si>
-    <t>二舅舅名</t>
-  </si>
-  <si>
     <t>二舅舅</t>
   </si>
   <si>
@@ -500,379 +488,455 @@
     <t>恐惧</t>
   </si>
   <si>
+    <t>米奇</t>
+  </si>
+  <si>
+    <t>char_1005</t>
+  </si>
+  <si>
+    <t>char_1007</t>
+  </si>
+  <si>
+    <t>char_1008</t>
+  </si>
+  <si>
+    <t>char_1009</t>
+  </si>
+  <si>
+    <t>char_1010</t>
+  </si>
+  <si>
+    <t>char_1011</t>
+  </si>
+  <si>
+    <t>char_1012</t>
+  </si>
+  <si>
+    <t>char_1013</t>
+  </si>
+  <si>
+    <t>char_1016</t>
+  </si>
+  <si>
+    <t>char_1017</t>
+  </si>
+  <si>
+    <t>char_1018</t>
+  </si>
+  <si>
+    <t>char_1020</t>
+  </si>
+  <si>
+    <t>char_1021</t>
+  </si>
+  <si>
+    <t>char_1022</t>
+  </si>
+  <si>
+    <t>char_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
+  </si>
+  <si>
+    <t>flag_1004</t>
+  </si>
+  <si>
+    <t>flag_1009</t>
+  </si>
+  <si>
+    <t>flag_1010</t>
+  </si>
+  <si>
+    <t>flag_1011</t>
+  </si>
+  <si>
+    <t>flag_1012</t>
+  </si>
+  <si>
+    <t>flag_1013</t>
+  </si>
+  <si>
+    <t>flag_1014</t>
+  </si>
+  <si>
+    <t>flag_1016</t>
+  </si>
+  <si>
+    <t>flag_1017</t>
+  </si>
+  <si>
+    <t>flag_1018</t>
+  </si>
+  <si>
+    <t>flag_1019</t>
+  </si>
+  <si>
+    <t>flag_1020</t>
+  </si>
+  <si>
+    <t>flag_1021</t>
+  </si>
+  <si>
+    <t>flag_1022</t>
+  </si>
+  <si>
+    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>effect_101</t>
+  </si>
+  <si>
+    <t>effect_104</t>
+  </si>
+  <si>
+    <t>effect_105</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1026</t>
+  </si>
+  <si>
+    <t>char_1027</t>
+  </si>
+  <si>
+    <t>effect_107</t>
+  </si>
+  <si>
+    <t>flag_1026</t>
+  </si>
+  <si>
+    <t>effect_109</t>
+  </si>
+  <si>
+    <t>has_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活，has=false不判断这个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1001</t>
+  </si>
+  <si>
+    <t>琪琪</t>
+  </si>
+  <si>
+    <t>char_icon_1001</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>flag_1001</t>
+  </si>
+  <si>
+    <t>flag_1001,flag_1002</t>
+  </si>
+  <si>
+    <t>flag_1002</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
+  </si>
+  <si>
+    <t>char_1002</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>effect_102</t>
+  </si>
+  <si>
+    <t>char_1003</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+  </si>
+  <si>
+    <t>普鲁特</t>
+  </si>
+  <si>
+    <t>flag_1005</t>
+  </si>
+  <si>
+    <t>char_1006</t>
+  </si>
+  <si>
+    <t>幼儿园同学</t>
+  </si>
+  <si>
+    <t>flag_1006</t>
+  </si>
+  <si>
+    <t>flag_1007</t>
+  </si>
+  <si>
+    <t>无话不谈</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+  </si>
+  <si>
+    <t>罗菲</t>
+  </si>
+  <si>
+    <t>康拉</t>
+  </si>
+  <si>
+    <t>effect_103</t>
+  </si>
+  <si>
+    <t>戴拉</t>
+  </si>
+  <si>
+    <t>卡雷尔</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
+    <t>effect_106</t>
+  </si>
+  <si>
+    <t>char_1015</t>
+  </si>
+  <si>
+    <t>flag_1015</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>char_1024</t>
+  </si>
+  <si>
+    <t>园长</t>
+  </si>
+  <si>
+    <t>亲近</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
+  </si>
+  <si>
+    <t>char_1025</t>
+  </si>
+  <si>
+    <t>flag_1025</t>
+  </si>
+  <si>
+    <t>莎娜</t>
+  </si>
+  <si>
+    <t>char_1028</t>
+  </si>
+  <si>
+    <t>被二舅舅找到的结果</t>
+  </si>
+  <si>
+    <t>flag_1028</t>
+  </si>
+  <si>
+    <t>char_1029</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>flag_1029</t>
+  </si>
+  <si>
+    <t>char_1030</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>flag_1030</t>
+  </si>
+  <si>
+    <t>char_1031</t>
+  </si>
+  <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
+  </si>
+  <si>
+    <t>char_icon_1007</t>
+  </si>
+  <si>
+    <t>char_icon_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1014</t>
+  </si>
+  <si>
+    <t>char_icon_1015</t>
+  </si>
+  <si>
+    <t>char_icon_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1024</t>
+  </si>
+  <si>
+    <t>char_icon_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>？？？</t>
-  </si>
-  <si>
-    <t>米奇</t>
-  </si>
-  <si>
-    <t>char_1005</t>
-  </si>
-  <si>
-    <t>char_1007</t>
-  </si>
-  <si>
-    <t>char_1008</t>
-  </si>
-  <si>
-    <t>char_1009</t>
-  </si>
-  <si>
-    <t>char_1010</t>
-  </si>
-  <si>
-    <t>char_1011</t>
-  </si>
-  <si>
-    <t>char_1012</t>
-  </si>
-  <si>
-    <t>char_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-  </si>
-  <si>
-    <t>char_1016</t>
-  </si>
-  <si>
-    <t>char_1017</t>
-  </si>
-  <si>
-    <t>char_1018</t>
-  </si>
-  <si>
-    <t>char_1020</t>
-  </si>
-  <si>
-    <t>char_1021</t>
-  </si>
-  <si>
-    <t>char_1022</t>
-  </si>
-  <si>
-    <t>char_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1002</t>
-  </si>
-  <si>
-    <t>flag_1004</t>
-  </si>
-  <si>
-    <t>flag_1009</t>
-  </si>
-  <si>
-    <t>flag_1010</t>
-  </si>
-  <si>
-    <t>flag_1011</t>
-  </si>
-  <si>
-    <t>flag_1012</t>
-  </si>
-  <si>
-    <t>flag_1013</t>
-  </si>
-  <si>
-    <t>flag_1014</t>
-  </si>
-  <si>
-    <t>flag_1016</t>
-  </si>
-  <si>
-    <t>flag_1017</t>
-  </si>
-  <si>
-    <t>flag_1018</t>
-  </si>
-  <si>
-    <t>flag_1019</t>
-  </si>
-  <si>
-    <t>flag_1020</t>
-  </si>
-  <si>
-    <t>flag_1021</t>
-  </si>
-  <si>
-    <t>flag_1022</t>
-  </si>
-  <si>
-    <t>flag_1023</t>
-  </si>
-  <si>
-    <t>effect_101</t>
-  </si>
-  <si>
-    <t>effect_104</t>
-  </si>
-  <si>
-    <t>effect_105</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>char_1026</t>
-  </si>
-  <si>
-    <t>char_1027</t>
-  </si>
-  <si>
-    <t>effect_107</t>
-  </si>
-  <si>
-    <t>flag_1026</t>
-  </si>
-  <si>
-    <t>effect_109</t>
-  </si>
-  <si>
-    <t>has_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存活，has=false不判断这个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1001</t>
-  </si>
-  <si>
-    <t>琪琪</t>
-  </si>
-  <si>
-    <t>char_icon_1001</t>
-  </si>
-  <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>flag_1001</t>
-  </si>
-  <si>
-    <t>flag_1001,flag_1002</t>
-  </si>
-  <si>
-    <t>flag_1002</t>
-  </si>
-  <si>
-    <t>flag_1003</t>
-  </si>
-  <si>
-    <t>char_1002</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>effect_102</t>
-  </si>
-  <si>
-    <t>char_1003</t>
-  </si>
-  <si>
-    <t>妈妈</t>
-  </si>
-  <si>
-    <t>char_icon_1003</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-  </si>
-  <si>
-    <t>普鲁特</t>
-  </si>
-  <si>
-    <t>flag_1005</t>
-  </si>
-  <si>
-    <t>char_1006</t>
-  </si>
-  <si>
-    <t>幼儿园同学</t>
-  </si>
-  <si>
-    <t>flag_1006</t>
-  </si>
-  <si>
-    <t>flag_1007</t>
-  </si>
-  <si>
-    <t>无话不谈</t>
-  </si>
-  <si>
-    <t>flag_1008</t>
-  </si>
-  <si>
-    <t>罗菲</t>
-  </si>
-  <si>
-    <t>康拉</t>
-  </si>
-  <si>
-    <t>effect_103</t>
-  </si>
-  <si>
-    <t>戴拉</t>
-  </si>
-  <si>
-    <t>卡雷尔</t>
-  </si>
-  <si>
-    <t>收银员</t>
-  </si>
-  <si>
-    <t>effect_106</t>
-  </si>
-  <si>
-    <t>char_1015</t>
-  </si>
-  <si>
-    <t>flag_1015</t>
-  </si>
-  <si>
-    <t>char_1019</t>
-  </si>
-  <si>
-    <t>吉祥物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维蒙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>威奥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1033</t>
+  </si>
+  <si>
+    <t>char_icon_1034</t>
+  </si>
+  <si>
+    <t>char_icon_1035</t>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>char_10232</t>
-  </si>
-  <si>
-    <t>char_1024</t>
-  </si>
-  <si>
-    <t>园长</t>
-  </si>
-  <si>
-    <t>亲近</t>
-  </si>
-  <si>
-    <t>flag_1024</t>
-  </si>
-  <si>
-    <t>char_1025</t>
-  </si>
-  <si>
-    <t>flag_1025</t>
-  </si>
-  <si>
-    <t>莎娜</t>
-  </si>
-  <si>
-    <t>char_1028</t>
-  </si>
-  <si>
-    <t>被二舅舅找到的结果</t>
-  </si>
-  <si>
-    <t>flag_1028</t>
-  </si>
-  <si>
-    <t>char_1029</t>
-  </si>
-  <si>
-    <t>信任</t>
-  </si>
-  <si>
-    <t>flag_1029</t>
-  </si>
-  <si>
-    <t>char_1030</t>
-  </si>
-  <si>
-    <t>怨恨</t>
-  </si>
-  <si>
-    <t>flag_1030</t>
-  </si>
-  <si>
-    <t>char_1031</t>
-  </si>
-  <si>
-    <t>flag_1031</t>
-  </si>
-  <si>
-    <t>char_1032</t>
-  </si>
-  <si>
-    <t>同学名1</t>
-  </si>
-  <si>
-    <t>flag_1032</t>
-  </si>
-  <si>
-    <t>char_1033</t>
-  </si>
-  <si>
-    <t>混混名1</t>
-  </si>
-  <si>
-    <t>校霸</t>
-  </si>
-  <si>
-    <t>讨厌</t>
-  </si>
-  <si>
-    <t>flag_1033</t>
-  </si>
-  <si>
-    <t>char_1034</t>
-  </si>
-  <si>
-    <t>混混名2</t>
-  </si>
-  <si>
-    <t>flag_1034</t>
-  </si>
-  <si>
-    <t>char_1035</t>
-  </si>
-  <si>
-    <t>混混名3</t>
-  </si>
-  <si>
-    <t>混混</t>
-  </si>
-  <si>
-    <t>flag_1035</t>
-  </si>
-  <si>
-    <t>char_1036</t>
-  </si>
-  <si>
-    <t>flag_1036</t>
-  </si>
-  <si>
-    <t>char_1037</t>
-  </si>
-  <si>
-    <t>flag_1037</t>
-  </si>
-  <si>
-    <t>char_1038</t>
-  </si>
-  <si>
-    <t>混混名4</t>
-  </si>
-  <si>
-    <t>flag_1038</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1019</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1388,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1551,7 @@
         <v>81</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -1636,10 +1700,10 @@
         <v>84</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>87</v>
@@ -1651,14 +1715,14 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1667,27 +1731,27 @@
         <v>100</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1696,7 +1760,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1711,7 +1775,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1719,32 +1783,32 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L10" s="5">
         <v>10</v>
@@ -1755,141 +1819,132 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>200</v>
       </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
         <v>10000</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -1901,259 +1956,259 @@
         <v>1</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
         <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L18">
         <v>10</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L19">
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5">
         <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L20">
         <v>15</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="R21">
         <v>5</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5">
         <v>10000</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M22">
         <v>30</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2165,73 +2220,67 @@
         <v>1</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
         <v>1000</v>
       </c>
-      <c r="H23" t="s">
-        <v>111</v>
-      </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L23">
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
         <v>1000</v>
       </c>
-      <c r="H24" t="s">
-        <v>111</v>
-      </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L24">
         <v>20</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2240,37 +2289,37 @@
         <v>1</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5">
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2279,34 +2328,31 @@
         <v>0</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5">
         <v>1000</v>
       </c>
-      <c r="H26" t="s">
-        <v>114</v>
-      </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2315,190 +2361,190 @@
         <v>1</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5">
         <v>10000</v>
       </c>
-      <c r="H27" t="s">
-        <v>116</v>
+      <c r="H27" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27">
         <v>30</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5">
         <v>10000</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L28">
         <v>30</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L29">
         <v>30</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L30">
         <v>30</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>10000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
       <c r="N32" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2510,7 +2556,7 @@
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D33" s="16"/>
       <c r="N33" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2521,38 +2567,38 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>10000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L34">
         <v>30</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2564,154 +2610,154 @@
         <v>5</v>
       </c>
       <c r="S34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>10000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L35">
         <v>30</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
+        <v>198</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="5" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>10000</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L36">
         <v>30</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>10000</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L37">
         <v>30</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>10000</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L38">
         <v>30</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -2719,49 +2765,46 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
-      <c r="H39" t="s">
-        <v>114</v>
-      </c>
       <c r="I39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L39">
         <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D40" s="16"/>
       <c r="N40" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -2772,32 +2815,29 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" t="s">
-        <v>137</v>
+      <c r="E41" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
-      <c r="H41" t="s">
-        <v>111</v>
-      </c>
       <c r="I41" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -2806,322 +2846,322 @@
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" t="s">
-        <v>137</v>
+      <c r="E42" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I42" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N42" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" t="s">
-        <v>137</v>
+      <c r="E43" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
       <c r="S43" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" t="s">
-        <v>222</v>
+      <c r="B44" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" t="s">
-        <v>137</v>
+      <c r="E44" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N44" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="N46" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
       </c>
       <c r="S46" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" t="s">
-        <v>233</v>
+        <v>219</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N48" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N49" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C50" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>100</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N50" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94347F76-4C63-4A46-8CA7-5516FA2C09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F3A0A-B984-4F5D-B80D-DAA10DB90DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="1140" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="260">
   <si>
     <t>##var</t>
   </si>
@@ -936,6 +936,14 @@
   </si>
   <si>
     <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_size#default=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1450,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,11 +1471,12 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="7" width="6.625" customWidth="1"/>
     <col min="8" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="13" width="4.625" customWidth="1"/>
-    <col min="14" max="19" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="20" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1502,27 +1511,30 @@
         <v>75</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1538,28 +1550,29 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2"/>
+      <c r="O2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1575,9 +1588,9 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="5"/>
+      <c r="N3"/>
       <c r="O3" s="5"/>
-      <c r="P3"/>
+      <c r="P3" s="5"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -1585,8 +1598,9 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1626,22 +1640,25 @@
       <c r="M4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="25"/>
+      <c r="T4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1659,8 +1676,8 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" s="4"/>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" s="4"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1669,8 +1686,9 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1690,30 +1708,33 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
+      <c r="L6" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="M6"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="5" t="s">
+      <c r="N6"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>159</v>
       </c>
@@ -1742,46 +1763,49 @@
       <c r="K7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>1.2</v>
+      </c>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O7" t="b">
+      <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="16"/>
       <c r="E8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>169</v>
       </c>
@@ -1811,13 +1835,16 @@
         <v>171</v>
       </c>
       <c r="L10" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>172</v>
       </c>
@@ -1837,11 +1864,14 @@
       <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="L11">
+        <v>1.2</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>174</v>
       </c>
@@ -1862,11 +1892,11 @@
         <v>92</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>116</v>
       </c>
@@ -1886,11 +1916,11 @@
       <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>177</v>
       </c>
@@ -1916,11 +1946,12 @@
       <c r="K14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="L14" s="5"/>
+      <c r="T14" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>117</v>
       </c>
@@ -1943,23 +1974,23 @@
       <c r="I15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15" t="b">
         <v>1</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>118</v>
       </c>
@@ -1982,17 +2013,17 @@
       <c r="I16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="5" t="s">
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>119</v>
       </c>
@@ -2015,14 +2046,14 @@
       <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>10</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>120</v>
       </c>
@@ -2048,20 +2079,21 @@
       <c r="K18" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5"/>
+      <c r="M18">
         <v>10</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5" t="s">
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>121</v>
       </c>
@@ -2087,20 +2119,21 @@
       <c r="K19" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5"/>
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5" t="s">
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>122</v>
       </c>
@@ -2126,17 +2159,18 @@
       <c r="K20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5"/>
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>123</v>
       </c>
@@ -2165,20 +2199,21 @@
       <c r="K21" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5"/>
+      <c r="M21">
         <v>15</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>132</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>5</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>235</v>
       </c>
@@ -2204,26 +2239,27 @@
       <c r="K22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="5"/>
+      <c r="N22">
         <v>30</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22" t="b">
         <v>1</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>190</v>
       </c>
@@ -2246,14 +2282,14 @@
       <c r="K23" t="s">
         <v>149</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>20</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>124</v>
       </c>
@@ -2276,23 +2312,23 @@
       <c r="K24" t="s">
         <v>149</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>20</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>125</v>
       </c>
@@ -2318,20 +2354,21 @@
       <c r="K25" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="N25" t="s">
+      <c r="L25" s="5"/>
+      <c r="O25" t="s">
         <v>135</v>
       </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="b">
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
         <v>0</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>126</v>
       </c>
@@ -2351,20 +2388,20 @@
       <c r="I26" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>192</v>
       </c>
@@ -2387,14 +2424,14 @@
       <c r="I27" t="s">
         <v>92</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>30</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>127</v>
       </c>
@@ -2420,20 +2457,20 @@
       <c r="K28" t="s">
         <v>155</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>30</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="O28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" s="5" t="s">
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>128</v>
       </c>
@@ -2453,20 +2490,20 @@
       <c r="K29" t="s">
         <v>155</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>30</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" s="5" t="s">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>129</v>
       </c>
@@ -2486,20 +2523,20 @@
       <c r="K30" t="s">
         <v>155</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>30</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="O30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-      <c r="S30" s="5" t="s">
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>130</v>
       </c>
@@ -2528,44 +2565,44 @@
       <c r="K31" t="s">
         <v>147</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" s="5" t="s">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D32" s="16"/>
-      <c r="N32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="b">
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D33" s="16"/>
-      <c r="N33" s="5" t="s">
+      <c r="O33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="b">
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>255</v>
       </c>
@@ -2594,26 +2631,26 @@
       <c r="K34" t="s">
         <v>147</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>30</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="b">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>5</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>194</v>
       </c>
@@ -2642,17 +2679,17 @@
       <c r="K35" t="s">
         <v>147</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>30</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>198</v>
       </c>
@@ -2678,17 +2715,17 @@
       <c r="K36" t="s">
         <v>147</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="O36" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="T36" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>151</v>
       </c>
@@ -2714,20 +2751,20 @@
       <c r="K37" t="s">
         <v>153</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>30</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="O37" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-      <c r="S37" s="5" t="s">
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>152</v>
       </c>
@@ -2753,17 +2790,17 @@
       <c r="K38" t="s">
         <v>153</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>201</v>
       </c>
@@ -2788,32 +2825,32 @@
       <c r="K39" t="s">
         <v>171</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>30</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>146</v>
       </c>
-      <c r="O39" t="b">
+      <c r="P39" t="b">
         <v>0</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D40" s="16"/>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>142</v>
       </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40">
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>204</v>
       </c>
@@ -2836,20 +2873,20 @@
       <c r="K41" t="s">
         <v>171</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>203</v>
       </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
-      <c r="S41" t="s">
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -2875,17 +2912,17 @@
       <c r="K42" t="s">
         <v>185</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>203</v>
       </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>210</v>
       </c>
@@ -2911,17 +2948,17 @@
       <c r="K43" t="s">
         <v>149</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>203</v>
       </c>
-      <c r="O43" t="b">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>248</v>
       </c>
@@ -2947,17 +2984,17 @@
       <c r="K44" t="s">
         <v>185</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>209</v>
       </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>213</v>
       </c>
@@ -2980,17 +3017,17 @@
       <c r="I45" t="s">
         <v>215</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>212</v>
       </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>217</v>
       </c>
@@ -3013,17 +3050,17 @@
       <c r="I46" t="s">
         <v>215</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>212</v>
       </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>219</v>
       </c>
@@ -3046,17 +3083,17 @@
       <c r="I47" t="s">
         <v>94</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>209</v>
       </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>222</v>
       </c>
@@ -3082,17 +3119,17 @@
       <c r="K48" t="s">
         <v>185</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>218</v>
       </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>224</v>
       </c>
@@ -3118,17 +3155,17 @@
       <c r="K49" t="s">
         <v>185</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>221</v>
       </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>226</v>
       </c>
@@ -3154,20 +3191,20 @@
       <c r="K50" t="s">
         <v>185</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>209</v>
       </c>
-      <c r="O50" t="b">
-        <v>1</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
         <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="O4:S4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F3A0A-B984-4F5D-B80D-DAA10DB90DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A1E63-7875-4CFC-A5A1-3D584DF634C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="660" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="257">
   <si>
     <t>##var</t>
   </si>
@@ -545,18 +545,9 @@
     <t>flag_1009</t>
   </si>
   <si>
-    <t>flag_1010</t>
-  </si>
-  <si>
     <t>flag_1011</t>
   </si>
   <si>
-    <t>flag_1012</t>
-  </si>
-  <si>
-    <t>flag_1013</t>
-  </si>
-  <si>
     <t>flag_1014</t>
   </si>
   <si>
@@ -623,327 +614,336 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>char_1001</t>
-  </si>
-  <si>
-    <t>琪琪</t>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
+  </si>
+  <si>
+    <t>effect_102</t>
+  </si>
+  <si>
+    <t>char_1003</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+  </si>
+  <si>
+    <t>普鲁特</t>
+  </si>
+  <si>
+    <t>flag_1005</t>
+  </si>
+  <si>
+    <t>char_1006</t>
+  </si>
+  <si>
+    <t>幼儿园同学</t>
+  </si>
+  <si>
+    <t>flag_1006</t>
+  </si>
+  <si>
+    <t>flag_1007</t>
+  </si>
+  <si>
+    <t>无话不谈</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+  </si>
+  <si>
+    <t>effect_103</t>
+  </si>
+  <si>
+    <t>戴拉</t>
+  </si>
+  <si>
+    <t>卡雷尔</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
+    <t>effect_106</t>
+  </si>
+  <si>
+    <t>char_1015</t>
+  </si>
+  <si>
+    <t>flag_1015</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>char_1024</t>
+  </si>
+  <si>
+    <t>园长</t>
+  </si>
+  <si>
+    <t>亲近</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
+  </si>
+  <si>
+    <t>char_1025</t>
+  </si>
+  <si>
+    <t>flag_1025</t>
+  </si>
+  <si>
+    <t>莎娜</t>
+  </si>
+  <si>
+    <t>char_1028</t>
+  </si>
+  <si>
+    <t>被二舅舅找到的结果</t>
+  </si>
+  <si>
+    <t>flag_1028</t>
+  </si>
+  <si>
+    <t>char_1029</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>flag_1029</t>
+  </si>
+  <si>
+    <t>char_1030</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>flag_1030</t>
+  </si>
+  <si>
+    <t>char_1031</t>
+  </si>
+  <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
+  </si>
+  <si>
+    <t>char_icon_1007</t>
+  </si>
+  <si>
+    <t>char_icon_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>char_icon_1001</t>
-  </si>
-  <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>flag_1001</t>
-  </si>
-  <si>
-    <t>flag_1001,flag_1002</t>
-  </si>
-  <si>
-    <t>flag_1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1014</t>
+  </si>
+  <si>
+    <t>char_icon_1015</t>
+  </si>
+  <si>
+    <t>char_icon_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1024</t>
+  </si>
+  <si>
+    <t>char_icon_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维蒙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>威奥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1033</t>
+  </si>
+  <si>
+    <t>char_icon_1034</t>
+  </si>
+  <si>
+    <t>char_icon_1035</t>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1019</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_size#default=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
+  </si>
+  <si>
+    <t>疏远</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1011,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1003</t>
-  </si>
-  <si>
-    <t>char_1002</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>effect_102</t>
-  </si>
-  <si>
-    <t>char_1003</t>
-  </si>
-  <si>
-    <t>妈妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1010,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1012,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1013,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_2001</t>
+  </si>
+  <si>
+    <t>二舅妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1018</t>
   </si>
   <si>
     <t>char_1004</t>
-  </si>
-  <si>
-    <t>普鲁特</t>
-  </si>
-  <si>
-    <t>flag_1005</t>
-  </si>
-  <si>
-    <t>char_1006</t>
-  </si>
-  <si>
-    <t>幼儿园同学</t>
-  </si>
-  <si>
-    <t>flag_1006</t>
-  </si>
-  <si>
-    <t>flag_1007</t>
-  </si>
-  <si>
-    <t>无话不谈</t>
-  </si>
-  <si>
-    <t>flag_1008</t>
-  </si>
-  <si>
-    <t>罗菲</t>
-  </si>
-  <si>
-    <t>康拉</t>
-  </si>
-  <si>
-    <t>effect_103</t>
-  </si>
-  <si>
-    <t>戴拉</t>
-  </si>
-  <si>
-    <t>卡雷尔</t>
-  </si>
-  <si>
-    <t>收银员</t>
-  </si>
-  <si>
-    <t>effect_106</t>
-  </si>
-  <si>
-    <t>char_1015</t>
-  </si>
-  <si>
-    <t>flag_1015</t>
-  </si>
-  <si>
-    <t>char_1019</t>
-  </si>
-  <si>
-    <t>吉祥物</t>
-  </si>
-  <si>
-    <t>char_1024</t>
-  </si>
-  <si>
-    <t>园长</t>
-  </si>
-  <si>
-    <t>亲近</t>
-  </si>
-  <si>
-    <t>flag_1024</t>
-  </si>
-  <si>
-    <t>char_1025</t>
-  </si>
-  <si>
-    <t>flag_1025</t>
-  </si>
-  <si>
-    <t>莎娜</t>
-  </si>
-  <si>
-    <t>char_1028</t>
-  </si>
-  <si>
-    <t>被二舅舅找到的结果</t>
-  </si>
-  <si>
-    <t>flag_1028</t>
-  </si>
-  <si>
-    <t>char_1029</t>
-  </si>
-  <si>
-    <t>信任</t>
-  </si>
-  <si>
-    <t>flag_1029</t>
-  </si>
-  <si>
-    <t>char_1030</t>
-  </si>
-  <si>
-    <t>怨恨</t>
-  </si>
-  <si>
-    <t>flag_1030</t>
-  </si>
-  <si>
-    <t>char_1031</t>
-  </si>
-  <si>
-    <t>flag_1031</t>
-  </si>
-  <si>
-    <t>flag_1032</t>
-  </si>
-  <si>
-    <t>char_1033</t>
-  </si>
-  <si>
-    <t>校霸</t>
-  </si>
-  <si>
-    <t>讨厌</t>
-  </si>
-  <si>
-    <t>flag_1033</t>
-  </si>
-  <si>
-    <t>char_1034</t>
-  </si>
-  <si>
-    <t>flag_1034</t>
-  </si>
-  <si>
-    <t>char_1035</t>
-  </si>
-  <si>
-    <t>混混</t>
-  </si>
-  <si>
-    <t>flag_1035</t>
-  </si>
-  <si>
-    <t>char_1036</t>
-  </si>
-  <si>
-    <t>flag_1036</t>
-  </si>
-  <si>
-    <t>char_1037</t>
-  </si>
-  <si>
-    <t>flag_1037</t>
-  </si>
-  <si>
-    <t>char_1038</t>
-  </si>
-  <si>
-    <t>flag_1038</t>
-  </si>
-  <si>
-    <t>char_icon_1007</t>
-  </si>
-  <si>
-    <t>char_icon_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_9001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1014</t>
-  </si>
-  <si>
-    <t>char_icon_1015</t>
-  </si>
-  <si>
-    <t>char_icon_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1024</t>
-  </si>
-  <si>
-    <t>char_icon_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗恩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>托尼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>维蒙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>威奥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1033</t>
-  </si>
-  <si>
-    <t>char_icon_1034</t>
-  </si>
-  <si>
-    <t>char_icon_1035</t>
-  </si>
-  <si>
-    <t>char_icon_1036</t>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_10232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1019</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>frame_size#default=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>框的大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_1010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1458,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1511,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>88</v>
@@ -1564,7 +1564,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -1709,7 +1709,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1721,10 +1721,10 @@
         <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>87</v>
@@ -1738,433 +1738,503 @@
       <c r="B7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9">
+        <v>1.2</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="5"/>
-      <c r="O9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>162</v>
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="L10" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="M10" s="5">
-        <v>10</v>
-      </c>
-      <c r="N10" s="5">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>173</v>
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>1.2</v>
+        <v>10000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>93</v>
+        <v>118</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
       <c r="T12" s="5" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.8</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14">
+        <v>1.2</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
       <c r="T14" s="5" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>99</v>
+        <v>246</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15">
+        <v>1.2</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" t="b">
-        <v>1</v>
-      </c>
       <c r="T15" s="5" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>96</v>
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
-        <v>30</v>
+      <c r="G17">
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
+        <v>104</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18">
-        <v>10</v>
+        <v>174</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.8</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
       <c r="T18" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
         <v>175</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="O19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
       </c>
       <c r="I20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20">
-        <v>15</v>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.7</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>132</v>
+        <v>176</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>136</v>
@@ -2172,42 +2242,41 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21">
-        <v>15</v>
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>1.2</v>
       </c>
       <c r="O21" t="s">
-        <v>132</v>
-      </c>
-      <c r="S21">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>137</v>
@@ -2215,44 +2284,34 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="N22">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.8</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" t="b">
         <v>1</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -2261,713 +2320,748 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="5">
-        <v>1000</v>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="I23" t="s">
         <v>92</v>
       </c>
-      <c r="K23" t="s">
-        <v>149</v>
+      <c r="L23" s="5">
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>252</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="5">
-        <v>1000</v>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
+        <v>152</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" t="b">
-        <v>1</v>
-      </c>
       <c r="T24" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="O25" t="s">
-        <v>135</v>
+        <v>114</v>
+      </c>
+      <c r="K25" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
       <c r="T25" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
-        <v>1000</v>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
       <c r="T26" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
         <v>92</v>
       </c>
-      <c r="M27">
-        <v>30</v>
+      <c r="J27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
       </c>
       <c r="T27" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D28" s="16"/>
+      <c r="O28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D29" s="16"/>
+      <c r="O29" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" t="s">
-        <v>155</v>
-      </c>
-      <c r="M28">
-        <v>30</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" t="s">
-        <v>155</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
-      <c r="T29" s="5" t="s">
-        <v>144</v>
+      <c r="R29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" t="s">
-        <v>113</v>
+        <v>222</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="K30" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.8</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
-      <c r="T30" s="5" t="s">
-        <v>145</v>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
+        <v>179</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.8</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
       <c r="T31" s="5" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D32" s="16"/>
+      <c r="E32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.8</v>
+      </c>
       <c r="O32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" t="b">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
       <c r="D33" s="16"/>
+      <c r="E33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33">
+        <v>1.2</v>
+      </c>
       <c r="O33" s="5" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
-      <c r="R33" t="b">
-        <v>0</v>
+      <c r="T33" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>10000</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>193</v>
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="L34">
+        <v>1.2</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
-      <c r="R34" t="b">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O35" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" t="b">
         <v>0</v>
       </c>
-      <c r="S34">
-        <v>5</v>
-      </c>
-      <c r="T34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I35" t="s">
-        <v>196</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35">
-        <v>30</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>197</v>
+      <c r="T35" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>10000</v>
-      </c>
-      <c r="H36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" t="s">
-        <v>147</v>
-      </c>
-      <c r="M36">
-        <v>30</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>199</v>
+      <c r="O36" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>151</v>
+      <c r="B37" t="s">
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>10000</v>
-      </c>
-      <c r="H37" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
-      </c>
-      <c r="M37">
-        <v>30</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>199</v>
+        <v>158</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O37" t="s">
+        <v>188</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
-      <c r="T37" s="5" t="s">
-        <v>154</v>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>152</v>
+      <c r="B38" t="s">
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H38" t="s">
         <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s">
-        <v>153</v>
-      </c>
-      <c r="M38">
-        <v>30</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>199</v>
+        <v>170</v>
+      </c>
+      <c r="L38">
+        <v>1.2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>188</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D39" s="16"/>
       <c r="E39" s="5" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
-        <v>171</v>
-      </c>
-      <c r="M39">
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.8</v>
       </c>
       <c r="O39" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D40" s="16"/>
+      <c r="E40" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.8</v>
+      </c>
       <c r="O40" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
-      <c r="S40">
-        <v>3</v>
+      <c r="T40" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
+        <v>198</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D41" s="16"/>
-      <c r="E41" s="5" t="s">
-        <v>237</v>
+      <c r="E41" t="s">
+        <v>234</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>100</v>
       </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
       <c r="I41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K41" t="s">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.8</v>
       </c>
       <c r="O41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
       <c r="T41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" t="s">
-        <v>175</v>
+        <v>202</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" s="5" t="s">
-        <v>230</v>
+      <c r="E42" t="s">
+        <v>235</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>185</v>
+        <v>200</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.8</v>
       </c>
       <c r="O42" t="s">
+        <v>197</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>203</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" s="5" t="s">
-        <v>229</v>
+      <c r="E43" t="s">
+        <v>236</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
-      </c>
-      <c r="K43" t="s">
-        <v>149</v>
+        <v>94</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.8</v>
       </c>
       <c r="O43" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>248</v>
+      <c r="B44" t="s">
+        <v>207</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" s="5" t="s">
-        <v>249</v>
+      <c r="E44" t="s">
+        <v>235</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2976,34 +3070,37 @@
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.8</v>
       </c>
       <c r="O44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3012,31 +3109,37 @@
         <v>100</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="I45" t="s">
-        <v>215</v>
+        <v>90</v>
+      </c>
+      <c r="K45" t="s">
+        <v>170</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.8</v>
       </c>
       <c r="O45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3045,160 +3148,25 @@
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+      <c r="K46" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.8</v>
       </c>
       <c r="O46" t="s">
+        <v>194</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
         <v>212</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47" t="s">
-        <v>220</v>
-      </c>
-      <c r="I47" t="s">
-        <v>94</v>
-      </c>
-      <c r="O47" t="s">
-        <v>209</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="T47" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="16"/>
-      <c r="E48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-      <c r="H48" t="s">
-        <v>220</v>
-      </c>
-      <c r="I48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" t="s">
-        <v>185</v>
-      </c>
-      <c r="O48" t="s">
-        <v>218</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="T48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" t="s">
-        <v>252</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-      <c r="H49" t="s">
-        <v>164</v>
-      </c>
-      <c r="I49" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" t="s">
-        <v>185</v>
-      </c>
-      <c r="O49" t="s">
-        <v>221</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="T49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="H50" t="s">
-        <v>220</v>
-      </c>
-      <c r="I50" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50" t="s">
-        <v>185</v>
-      </c>
-      <c r="O50" t="s">
-        <v>209</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="T50" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A1E63-7875-4CFC-A5A1-3D584DF634C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E6157-3AFE-44B3-BDD5-0E4AA6EFA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="660" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25185" yWindow="3015" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="258">
   <si>
     <t>##var</t>
   </si>
@@ -569,381 +569,387 @@
     <t>flag_1021</t>
   </si>
   <si>
+    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>effect_101</t>
+  </si>
+  <si>
+    <t>effect_104</t>
+  </si>
+  <si>
+    <t>effect_105</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1026</t>
+  </si>
+  <si>
+    <t>char_1027</t>
+  </si>
+  <si>
+    <t>effect_107</t>
+  </si>
+  <si>
+    <t>flag_1026</t>
+  </si>
+  <si>
+    <t>effect_109</t>
+  </si>
+  <si>
+    <t>has_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活，has=false不判断这个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
+  </si>
+  <si>
+    <t>effect_102</t>
+  </si>
+  <si>
+    <t>char_1003</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+  </si>
+  <si>
+    <t>普鲁特</t>
+  </si>
+  <si>
+    <t>flag_1005</t>
+  </si>
+  <si>
+    <t>char_1006</t>
+  </si>
+  <si>
+    <t>幼儿园同学</t>
+  </si>
+  <si>
+    <t>flag_1006</t>
+  </si>
+  <si>
+    <t>flag_1007</t>
+  </si>
+  <si>
+    <t>无话不谈</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+  </si>
+  <si>
+    <t>effect_103</t>
+  </si>
+  <si>
+    <t>戴拉</t>
+  </si>
+  <si>
+    <t>卡雷尔</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
+    <t>effect_106</t>
+  </si>
+  <si>
+    <t>char_1015</t>
+  </si>
+  <si>
+    <t>flag_1015</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>char_1024</t>
+  </si>
+  <si>
+    <t>园长</t>
+  </si>
+  <si>
+    <t>亲近</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
+  </si>
+  <si>
+    <t>char_1025</t>
+  </si>
+  <si>
+    <t>flag_1025</t>
+  </si>
+  <si>
+    <t>莎娜</t>
+  </si>
+  <si>
+    <t>char_1028</t>
+  </si>
+  <si>
+    <t>被二舅舅找到的结果</t>
+  </si>
+  <si>
+    <t>flag_1028</t>
+  </si>
+  <si>
+    <t>char_1029</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>flag_1029</t>
+  </si>
+  <si>
+    <t>char_1030</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>flag_1030</t>
+  </si>
+  <si>
+    <t>char_1031</t>
+  </si>
+  <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
+  </si>
+  <si>
+    <t>char_icon_1007</t>
+  </si>
+  <si>
+    <t>char_icon_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1014</t>
+  </si>
+  <si>
+    <t>char_icon_1015</t>
+  </si>
+  <si>
+    <t>char_icon_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1024</t>
+  </si>
+  <si>
+    <t>char_icon_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维蒙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>威奥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1033</t>
+  </si>
+  <si>
+    <t>char_icon_1034</t>
+  </si>
+  <si>
+    <t>char_icon_1035</t>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1019</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_size#default=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
+  </si>
+  <si>
+    <t>疏远</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1011,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1010,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1012,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1013,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二舅妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1018</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_1010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>flag_1022</t>
-  </si>
-  <si>
-    <t>flag_1023</t>
-  </si>
-  <si>
-    <t>effect_101</t>
-  </si>
-  <si>
-    <t>effect_104</t>
-  </si>
-  <si>
-    <t>effect_105</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>char_1026</t>
-  </si>
-  <si>
-    <t>char_1027</t>
-  </si>
-  <si>
-    <t>effect_107</t>
-  </si>
-  <si>
-    <t>flag_1026</t>
-  </si>
-  <si>
-    <t>effect_109</t>
-  </si>
-  <si>
-    <t>has_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存活，has=false不判断这个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>flag_1003</t>
-  </si>
-  <si>
-    <t>effect_102</t>
-  </si>
-  <si>
-    <t>char_1003</t>
-  </si>
-  <si>
-    <t>妈妈</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-  </si>
-  <si>
-    <t>普鲁特</t>
-  </si>
-  <si>
-    <t>flag_1005</t>
-  </si>
-  <si>
-    <t>char_1006</t>
-  </si>
-  <si>
-    <t>幼儿园同学</t>
-  </si>
-  <si>
-    <t>flag_1006</t>
-  </si>
-  <si>
-    <t>flag_1007</t>
-  </si>
-  <si>
-    <t>无话不谈</t>
-  </si>
-  <si>
-    <t>flag_1008</t>
-  </si>
-  <si>
-    <t>effect_103</t>
-  </si>
-  <si>
-    <t>戴拉</t>
-  </si>
-  <si>
-    <t>卡雷尔</t>
-  </si>
-  <si>
-    <t>收银员</t>
-  </si>
-  <si>
-    <t>effect_106</t>
-  </si>
-  <si>
-    <t>char_1015</t>
-  </si>
-  <si>
-    <t>flag_1015</t>
-  </si>
-  <si>
-    <t>char_1019</t>
-  </si>
-  <si>
-    <t>吉祥物</t>
-  </si>
-  <si>
-    <t>char_1024</t>
-  </si>
-  <si>
-    <t>园长</t>
-  </si>
-  <si>
-    <t>亲近</t>
-  </si>
-  <si>
-    <t>flag_1024</t>
-  </si>
-  <si>
-    <t>char_1025</t>
-  </si>
-  <si>
-    <t>flag_1025</t>
-  </si>
-  <si>
-    <t>莎娜</t>
-  </si>
-  <si>
-    <t>char_1028</t>
-  </si>
-  <si>
-    <t>被二舅舅找到的结果</t>
-  </si>
-  <si>
-    <t>flag_1028</t>
-  </si>
-  <si>
-    <t>char_1029</t>
-  </si>
-  <si>
-    <t>信任</t>
-  </si>
-  <si>
-    <t>flag_1029</t>
-  </si>
-  <si>
-    <t>char_1030</t>
-  </si>
-  <si>
-    <t>怨恨</t>
-  </si>
-  <si>
-    <t>flag_1030</t>
-  </si>
-  <si>
-    <t>char_1031</t>
-  </si>
-  <si>
-    <t>flag_1031</t>
-  </si>
-  <si>
-    <t>flag_1032</t>
-  </si>
-  <si>
-    <t>char_1033</t>
-  </si>
-  <si>
-    <t>校霸</t>
-  </si>
-  <si>
-    <t>讨厌</t>
-  </si>
-  <si>
-    <t>flag_1033</t>
-  </si>
-  <si>
-    <t>char_1034</t>
-  </si>
-  <si>
-    <t>flag_1034</t>
-  </si>
-  <si>
-    <t>char_1035</t>
-  </si>
-  <si>
-    <t>混混</t>
-  </si>
-  <si>
-    <t>flag_1035</t>
-  </si>
-  <si>
-    <t>char_1036</t>
-  </si>
-  <si>
-    <t>flag_1036</t>
-  </si>
-  <si>
-    <t>char_1037</t>
-  </si>
-  <si>
-    <t>flag_1037</t>
-  </si>
-  <si>
-    <t>char_1038</t>
-  </si>
-  <si>
-    <t>flag_1038</t>
-  </si>
-  <si>
-    <t>char_icon_1007</t>
-  </si>
-  <si>
-    <t>char_icon_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_9001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1014</t>
-  </si>
-  <si>
-    <t>char_icon_1015</t>
-  </si>
-  <si>
-    <t>char_icon_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1024</t>
-  </si>
-  <si>
-    <t>char_icon_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗恩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>托尼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>维蒙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>威奥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1033</t>
-  </si>
-  <si>
-    <t>char_icon_1034</t>
-  </si>
-  <si>
-    <t>char_icon_1035</t>
-  </si>
-  <si>
-    <t>char_icon_1036</t>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_10232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1019</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>frame_size#default=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>框的大小</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1003</t>
-  </si>
-  <si>
-    <t>疏远</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1011,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1010,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1012,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1013,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_2001</t>
-  </si>
-  <si>
-    <t>二舅妈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1018</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_1010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1030</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1458,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1517,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>88</v>
@@ -1564,7 +1570,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -1709,7 +1715,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1721,10 +1727,10 @@
         <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>87</v>
@@ -1736,14 +1742,14 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1755,25 +1761,25 @@
         <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L7">
         <v>1.2</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1797,11 +1803,11 @@
         <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1816,19 +1822,19 @@
         <v>1.2</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1837,19 +1843,19 @@
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>92</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1861,7 +1867,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1879,19 +1885,19 @@
         <v>0.7</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1903,7 +1909,7 @@
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1912,25 +1918,25 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L12" s="5">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1938,7 +1944,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
@@ -1968,11 +1974,11 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1991,13 +1997,13 @@
         <v>1.2</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2005,11 +2011,11 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2021,22 +2027,22 @@
         <v>95</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L15">
         <v>1.2</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2044,11 +2050,11 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2063,7 +2069,7 @@
         <v>104</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16">
         <v>0.8</v>
@@ -2072,7 +2078,7 @@
         <v>132</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
@@ -2080,11 +2086,11 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2099,10 +2105,10 @@
         <v>104</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17">
         <v>0.8</v>
@@ -2114,19 +2120,19 @@
         <v>5</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2141,13 +2147,13 @@
         <v>99</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L18" s="5">
         <v>0.8</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -2164,14 +2170,14 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2182,20 +2188,17 @@
       <c r="I19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" t="s">
-        <v>146</v>
-      </c>
       <c r="L19" s="5">
         <v>0.7</v>
       </c>
       <c r="O19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
@@ -2207,7 +2210,7 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2218,14 +2221,11 @@
       <c r="I20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" t="s">
-        <v>146</v>
-      </c>
       <c r="L20" s="5">
         <v>0.7</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2245,11 +2245,11 @@
         <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>109</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L21">
         <v>1.2</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>0.8</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2320,14 +2320,14 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2336,19 +2336,22 @@
         <v>100</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
         <v>92</v>
       </c>
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
       <c r="L23" s="5">
         <v>1</v>
       </c>
       <c r="M23">
         <v>8</v>
       </c>
-      <c r="O23" t="s">
-        <v>252</v>
+      <c r="O23" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2366,10 +2369,10 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -2379,9 +2382,6 @@
       </c>
       <c r="I24" t="s">
         <v>103</v>
-      </c>
-      <c r="K24" t="s">
-        <v>152</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -2405,10 +2405,10 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -2418,9 +2418,6 @@
       </c>
       <c r="I25" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" t="s">
-        <v>152</v>
       </c>
       <c r="L25" s="5">
         <v>1</v>
@@ -2440,14 +2437,14 @@
         <v>129</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -2458,9 +2455,6 @@
       <c r="I26" t="s">
         <v>114</v>
       </c>
-      <c r="K26" t="s">
-        <v>152</v>
-      </c>
       <c r="L26" s="5">
         <v>1</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
@@ -2483,7 +2477,7 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2492,7 +2486,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
         <v>92</v>
@@ -2501,178 +2495,231 @@
         <v>112</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L27" s="5">
         <v>0.8</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
       <c r="T27" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D28" s="16"/>
+      <c r="L28" s="5">
+        <v>0.8</v>
+      </c>
       <c r="O28" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
-      <c r="R28" t="b">
-        <v>0</v>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D29" s="16"/>
+      <c r="E29" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.8</v>
+      </c>
       <c r="O29" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" t="b">
-        <v>0</v>
+      <c r="T29" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>182</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>178</v>
+      <c r="H30" t="s">
+        <v>146</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L30" s="5">
         <v>0.8</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30" t="s">
-        <v>143</v>
+        <v>181</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>225</v>
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>180</v>
+      <c r="H31" t="s">
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.8</v>
+        <v>149</v>
+      </c>
+      <c r="L31">
+        <v>1.2</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>143</v>
+        <v>183</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>225</v>
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
         <v>90</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0.8</v>
+        <v>149</v>
+      </c>
+      <c r="L32">
+        <v>1.2</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>148</v>
+      <c r="B33" t="s">
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="16"/>
+        <v>110</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="E33" s="5" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2680,59 +2727,29 @@
       <c r="G33">
         <v>100</v>
       </c>
-      <c r="H33" t="s">
-        <v>91</v>
-      </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
-      </c>
-      <c r="L33">
-        <v>1.2</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>162</v>
-      </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" t="s">
-        <v>90</v>
-      </c>
-      <c r="K34" t="s">
-        <v>150</v>
-      </c>
-      <c r="L34">
-        <v>1.2</v>
-      </c>
       <c r="O34" s="5" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -2740,16 +2757,14 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>187</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2758,46 +2773,76 @@
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L35" s="5">
         <v>0.8</v>
       </c>
       <c r="O35" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
       <c r="D36" s="16"/>
+      <c r="E36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" t="s">
+        <v>192</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36">
+        <v>1.2</v>
+      </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
-      <c r="S36">
-        <v>3</v>
+      <c r="T36" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2805,38 +2850,38 @@
       <c r="G37">
         <v>100</v>
       </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L37" s="5">
         <v>0.8</v>
       </c>
       <c r="O37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
-      <c r="Q37" t="b">
-        <v>1</v>
-      </c>
       <c r="T37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
+      <c r="B38" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2845,37 +2890,37 @@
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O38" t="s">
         <v>193</v>
       </c>
-      <c r="K38" t="s">
-        <v>170</v>
-      </c>
-      <c r="L38">
-        <v>1.2</v>
-      </c>
-      <c r="O38" t="s">
-        <v>188</v>
-      </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
+        <v>197</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="5" t="s">
-        <v>214</v>
+      <c r="E39" t="s">
+        <v>233</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2884,37 +2929,34 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K39" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="L39" s="5">
         <v>0.8</v>
       </c>
       <c r="O39" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>232</v>
+      <c r="B40" t="s">
+        <v>201</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="5" t="s">
-        <v>233</v>
+      <c r="E40" t="s">
+        <v>234</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2923,37 +2965,34 @@
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="L40" s="5">
         <v>0.8</v>
       </c>
       <c r="O40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2962,34 +3001,34 @@
         <v>100</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="L41" s="5">
         <v>0.8</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2998,34 +3037,37 @@
         <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>200</v>
+        <v>104</v>
+      </c>
+      <c r="K42" t="s">
+        <v>169</v>
       </c>
       <c r="L42" s="5">
         <v>0.8</v>
       </c>
       <c r="O42" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3034,34 +3076,37 @@
         <v>100</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="K43" t="s">
+        <v>169</v>
       </c>
       <c r="L43" s="5">
         <v>0.8</v>
       </c>
       <c r="O43" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3070,103 +3115,25 @@
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I44" t="s">
         <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L44" s="5">
         <v>0.8</v>
       </c>
       <c r="O44" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I45" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" t="s">
-        <v>170</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O45" t="s">
-        <v>206</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="T45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
         <v>211</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>205</v>
-      </c>
-      <c r="I46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" t="s">
-        <v>170</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O46" t="s">
-        <v>194</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T46" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E6157-3AFE-44B3-BDD5-0E4AA6EFA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB03DD8A-7CBA-4F37-BB9D-B0C35877BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25185" yWindow="3015" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="945" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="277">
   <si>
     <t>##var</t>
   </si>
@@ -491,465 +491,547 @@
     <t>米奇</t>
   </si>
   <si>
+    <t>char_1010</t>
+  </si>
+  <si>
+    <t>char_1011</t>
+  </si>
+  <si>
+    <t>char_1012</t>
+  </si>
+  <si>
+    <t>char_1013</t>
+  </si>
+  <si>
+    <t>char_1016</t>
+  </si>
+  <si>
+    <t>char_1017</t>
+  </si>
+  <si>
+    <t>char_1018</t>
+  </si>
+  <si>
+    <t>char_1020</t>
+  </si>
+  <si>
+    <t>char_1021</t>
+  </si>
+  <si>
+    <t>char_1022</t>
+  </si>
+  <si>
+    <t>char_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1002</t>
+  </si>
+  <si>
+    <t>flag_1004</t>
+  </si>
+  <si>
+    <t>flag_1011</t>
+  </si>
+  <si>
+    <t>flag_1014</t>
+  </si>
+  <si>
+    <t>flag_1016</t>
+  </si>
+  <si>
+    <t>flag_1017</t>
+  </si>
+  <si>
+    <t>flag_1018</t>
+  </si>
+  <si>
+    <t>flag_1019</t>
+  </si>
+  <si>
+    <t>flag_1020</t>
+  </si>
+  <si>
+    <t>flag_1021</t>
+  </si>
+  <si>
+    <t>flag_1023</t>
+  </si>
+  <si>
+    <t>effect_101</t>
+  </si>
+  <si>
+    <t>effect_104</t>
+  </si>
+  <si>
+    <t>effect_105</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>char_1026</t>
+  </si>
+  <si>
+    <t>char_1027</t>
+  </si>
+  <si>
+    <t>effect_107</t>
+  </si>
+  <si>
+    <t>flag_1026</t>
+  </si>
+  <si>
+    <t>effect_109</t>
+  </si>
+  <si>
+    <t>has_time#default=-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活，has=false不判断这个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>flag_1003</t>
+  </si>
+  <si>
+    <t>effect_102</t>
+  </si>
+  <si>
+    <t>char_1003</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+  </si>
+  <si>
+    <t>普鲁特</t>
+  </si>
+  <si>
+    <t>flag_1005</t>
+  </si>
+  <si>
+    <t>flag_1006</t>
+  </si>
+  <si>
+    <t>flag_1007</t>
+  </si>
+  <si>
+    <t>无话不谈</t>
+  </si>
+  <si>
+    <t>flag_1008</t>
+  </si>
+  <si>
+    <t>effect_103</t>
+  </si>
+  <si>
+    <t>戴拉</t>
+  </si>
+  <si>
+    <t>卡雷尔</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
+    <t>effect_106</t>
+  </si>
+  <si>
+    <t>char_1015</t>
+  </si>
+  <si>
+    <t>flag_1015</t>
+  </si>
+  <si>
+    <t>char_1019</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>char_1024</t>
+  </si>
+  <si>
+    <t>园长</t>
+  </si>
+  <si>
+    <t>亲近</t>
+  </si>
+  <si>
+    <t>flag_1024</t>
+  </si>
+  <si>
+    <t>char_1025</t>
+  </si>
+  <si>
+    <t>flag_1025</t>
+  </si>
+  <si>
+    <t>莎娜</t>
+  </si>
+  <si>
+    <t>char_1028</t>
+  </si>
+  <si>
+    <t>被二舅舅找到的结果</t>
+  </si>
+  <si>
+    <t>flag_1028</t>
+  </si>
+  <si>
+    <t>char_1029</t>
+  </si>
+  <si>
+    <t>信任</t>
+  </si>
+  <si>
+    <t>flag_1029</t>
+  </si>
+  <si>
+    <t>char_1030</t>
+  </si>
+  <si>
+    <t>怨恨</t>
+  </si>
+  <si>
+    <t>flag_1030</t>
+  </si>
+  <si>
+    <t>char_1031</t>
+  </si>
+  <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
+  </si>
+  <si>
+    <t>char_icon_1007</t>
+  </si>
+  <si>
+    <t>char_icon_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1014</t>
+  </si>
+  <si>
+    <t>char_icon_1015</t>
+  </si>
+  <si>
+    <t>char_icon_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1024</t>
+  </si>
+  <si>
+    <t>char_icon_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维蒙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>威奥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1033</t>
+  </si>
+  <si>
+    <t>char_icon_1034</t>
+  </si>
+  <si>
+    <t>char_icon_1035</t>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1019</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_size#default=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
+  </si>
+  <si>
+    <t>疏远</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1011,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1010,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1012,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1013,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二舅妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1018</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_1010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>园友</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005,flag10030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag10030</t>
+  </si>
+  <si>
+    <t>flag10030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1003,flag10030,flag10031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag10031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸，为什么你要离开我们？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1088</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_901</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1040</t>
+  </si>
+  <si>
+    <t>char_1040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤感</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌生人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>char_1005</t>
-  </si>
-  <si>
-    <t>char_1007</t>
-  </si>
-  <si>
-    <t>char_1008</t>
-  </si>
-  <si>
-    <t>char_1009</t>
-  </si>
-  <si>
-    <t>char_1010</t>
-  </si>
-  <si>
-    <t>char_1011</t>
-  </si>
-  <si>
-    <t>char_1012</t>
-  </si>
-  <si>
-    <t>char_1013</t>
-  </si>
-  <si>
-    <t>char_1016</t>
-  </si>
-  <si>
-    <t>char_1017</t>
-  </si>
-  <si>
-    <t>char_1018</t>
-  </si>
-  <si>
-    <t>char_1020</t>
-  </si>
-  <si>
-    <t>char_1021</t>
-  </si>
-  <si>
-    <t>char_1022</t>
-  </si>
-  <si>
-    <t>char_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1002</t>
-  </si>
-  <si>
-    <t>flag_1004</t>
-  </si>
-  <si>
-    <t>flag_1009</t>
-  </si>
-  <si>
-    <t>flag_1011</t>
-  </si>
-  <si>
-    <t>flag_1014</t>
-  </si>
-  <si>
-    <t>flag_1016</t>
-  </si>
-  <si>
-    <t>flag_1017</t>
-  </si>
-  <si>
-    <t>flag_1018</t>
-  </si>
-  <si>
-    <t>flag_1019</t>
-  </si>
-  <si>
-    <t>flag_1020</t>
-  </si>
-  <si>
-    <t>flag_1021</t>
-  </si>
-  <si>
-    <t>flag_1023</t>
-  </si>
-  <si>
-    <t>effect_101</t>
-  </si>
-  <si>
-    <t>effect_104</t>
-  </si>
-  <si>
-    <t>effect_105</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>char_1026</t>
-  </si>
-  <si>
-    <t>char_1027</t>
-  </si>
-  <si>
-    <t>effect_107</t>
-  </si>
-  <si>
-    <t>flag_1026</t>
-  </si>
-  <si>
-    <t>effect_109</t>
-  </si>
-  <si>
-    <t>has_time#default=-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>存活长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否存活，has=false不判断这个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>flag_1003</t>
-  </si>
-  <si>
-    <t>effect_102</t>
-  </si>
-  <si>
-    <t>char_1003</t>
-  </si>
-  <si>
-    <t>妈妈</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-  </si>
-  <si>
-    <t>普鲁特</t>
-  </si>
-  <si>
-    <t>flag_1005</t>
-  </si>
-  <si>
-    <t>char_1006</t>
-  </si>
-  <si>
-    <t>幼儿园同学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1006</t>
-  </si>
-  <si>
-    <t>flag_1007</t>
-  </si>
-  <si>
-    <t>无话不谈</t>
-  </si>
-  <si>
-    <t>flag_1008</t>
-  </si>
-  <si>
-    <t>effect_103</t>
-  </si>
-  <si>
-    <t>戴拉</t>
-  </si>
-  <si>
-    <t>卡雷尔</t>
-  </si>
-  <si>
-    <t>收银员</t>
-  </si>
-  <si>
-    <t>effect_106</t>
-  </si>
-  <si>
-    <t>char_1015</t>
-  </si>
-  <si>
-    <t>flag_1015</t>
-  </si>
-  <si>
-    <t>char_1019</t>
-  </si>
-  <si>
-    <t>吉祥物</t>
-  </si>
-  <si>
-    <t>char_1024</t>
-  </si>
-  <si>
-    <t>园长</t>
-  </si>
-  <si>
-    <t>亲近</t>
-  </si>
-  <si>
-    <t>flag_1024</t>
-  </si>
-  <si>
-    <t>char_1025</t>
-  </si>
-  <si>
-    <t>flag_1025</t>
-  </si>
-  <si>
-    <t>莎娜</t>
-  </si>
-  <si>
-    <t>char_1028</t>
-  </si>
-  <si>
-    <t>被二舅舅找到的结果</t>
-  </si>
-  <si>
-    <t>flag_1028</t>
-  </si>
-  <si>
-    <t>char_1029</t>
-  </si>
-  <si>
-    <t>信任</t>
-  </si>
-  <si>
-    <t>flag_1029</t>
-  </si>
-  <si>
-    <t>char_1030</t>
-  </si>
-  <si>
-    <t>怨恨</t>
-  </si>
-  <si>
-    <t>flag_1030</t>
-  </si>
-  <si>
-    <t>char_1031</t>
-  </si>
-  <si>
-    <t>flag_1031</t>
-  </si>
-  <si>
-    <t>flag_1032</t>
-  </si>
-  <si>
-    <t>char_1033</t>
-  </si>
-  <si>
-    <t>校霸</t>
-  </si>
-  <si>
-    <t>讨厌</t>
-  </si>
-  <si>
-    <t>flag_1033</t>
-  </si>
-  <si>
-    <t>char_1034</t>
-  </si>
-  <si>
-    <t>flag_1034</t>
-  </si>
-  <si>
-    <t>char_1035</t>
-  </si>
-  <si>
-    <t>混混</t>
-  </si>
-  <si>
-    <t>flag_1035</t>
-  </si>
-  <si>
-    <t>char_1036</t>
-  </si>
-  <si>
-    <t>flag_1036</t>
-  </si>
-  <si>
-    <t>char_1037</t>
-  </si>
-  <si>
-    <t>flag_1037</t>
-  </si>
-  <si>
-    <t>char_1038</t>
-  </si>
-  <si>
-    <t>flag_1038</t>
-  </si>
-  <si>
-    <t>char_icon_1007</t>
-  </si>
-  <si>
-    <t>char_icon_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_9001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1014</t>
-  </si>
-  <si>
-    <t>char_icon_1015</t>
-  </si>
-  <si>
-    <t>char_icon_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1024</t>
-  </si>
-  <si>
-    <t>char_icon_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗恩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>托尼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>维蒙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>威奥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1033</t>
-  </si>
-  <si>
-    <t>char_icon_1034</t>
-  </si>
-  <si>
-    <t>char_icon_1035</t>
-  </si>
-  <si>
-    <t>char_icon_1036</t>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_10232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1019</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>frame_size#default=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>框的大小</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1003</t>
-  </si>
-  <si>
-    <t>疏远</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1011,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1010,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1012,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1013,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二舅妈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1018</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_1010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1041,flag_10410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1042,flag_10410</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1464,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1517,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>88</v>
@@ -1570,7 +1652,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -1715,7 +1797,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1727,10 +1809,10 @@
         <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>87</v>
@@ -1742,418 +1824,362 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="I7" t="s">
         <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>93</v>
+        <v>249</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="5"/>
       <c r="L8">
-        <v>0.8</v>
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>200</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9">
-        <v>1.2</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="5">
+        <v>262</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>10000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L11" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
       <c r="T11" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="O13" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>184</v>
+        <v>268</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" t="s">
-        <v>102</v>
+        <v>159</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14">
-        <v>1.2</v>
+      <c r="L14" s="5">
+        <v>0.7</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
       <c r="T14" s="5" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>161</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15">
-        <v>1.2</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
+        <v>271</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16">
-        <v>0.8</v>
+        <v>159</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>0.7</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>132</v>
+        <v>274</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>30</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17">
-        <v>0.8</v>
-      </c>
-      <c r="O17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17">
-        <v>5</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>250</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>168</v>
+        <v>200</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18">
+        <v>0.7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>156</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -2165,319 +2191,150 @@
         <v>1</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>251</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="O19" t="s">
-        <v>160</v>
+      <c r="E19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
-      <c r="T19" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20">
         <v>0.7</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" t="b">
-        <v>1</v>
+      <c r="R20" t="b">
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>161</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21">
-        <v>1.2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="E21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="E22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="E23" s="5"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="E25" s="5"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>225</v>
+        <v>244</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
-      <c r="H26" t="s">
-        <v>113</v>
-      </c>
       <c r="I26" t="s">
-        <v>114</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="L26">
+        <v>0.8</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
+        <v>261</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2485,241 +2342,255 @@
       <c r="G27">
         <v>100</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" t="s">
-        <v>143</v>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="L27" s="5">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
       <c r="T27" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>100</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>177</v>
+      <c r="H28" t="s">
+        <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0.8</v>
+        <v>102</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28">
+        <v>1.2</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
-      <c r="S28">
-        <v>5</v>
-      </c>
-      <c r="T28" t="s">
-        <v>142</v>
+      <c r="T28" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="5" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>100</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.8</v>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29">
+        <v>1.2</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>224</v>
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="5">
+        <v>104</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30">
         <v>0.8</v>
       </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
       <c r="O30" s="5" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" t="s">
-        <v>149</v>
+        <v>104</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="L31">
-        <v>1.2</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>128</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32">
-        <v>1.2</v>
+        <v>99</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>186</v>
-      </c>
+      <c r="B33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2728,43 +2599,76 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
         <v>104</v>
       </c>
-      <c r="K33" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O33" t="s">
-        <v>142</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D34" s="16"/>
+      <c r="L34" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
       <c r="O34" s="5" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>188</v>
+      <c r="B35" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="5" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2772,38 +2676,44 @@
       <c r="G35">
         <v>100</v>
       </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
       <c r="I35" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" t="s">
-        <v>157</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0.8</v>
+        <v>109</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L35">
+        <v>1.2</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
-      <c r="Q35" t="b">
-        <v>1</v>
-      </c>
-      <c r="T35" t="s">
-        <v>190</v>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>191</v>
+      <c r="B36" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="5" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2811,38 +2721,38 @@
       <c r="G36">
         <v>100</v>
       </c>
-      <c r="H36" t="s">
-        <v>95</v>
-      </c>
       <c r="I36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36" t="s">
-        <v>169</v>
-      </c>
-      <c r="L36">
-        <v>1.2</v>
-      </c>
-      <c r="O36" t="s">
-        <v>187</v>
+        <v>92</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M36">
+        <v>100</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
-      <c r="T36" t="s">
-        <v>193</v>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>194</v>
+      <c r="B37" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="5" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2850,290 +2760,865 @@
       <c r="G37">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
-        <v>91</v>
+      <c r="H37" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L37" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O37" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
-      <c r="T37" t="s">
-        <v>195</v>
+      <c r="T37" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>226</v>
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>100</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>100</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L38" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O38" t="s">
-        <v>193</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="T38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I39" t="s">
-        <v>199</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O39" t="s">
-        <v>196</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="T39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I40" t="s">
-        <v>199</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O40" t="s">
-        <v>196</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="T40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>204</v>
-      </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" t="s">
+        <v>138</v>
       </c>
       <c r="L41" s="5">
         <v>0.8</v>
       </c>
-      <c r="O41" t="s">
-        <v>193</v>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
-      <c r="T41" t="s">
-        <v>205</v>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>228</v>
+      <c r="B42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
       </c>
       <c r="D42" s="16"/>
-      <c r="E42" t="s">
-        <v>234</v>
+      <c r="E42" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
-      <c r="H42" t="s">
-        <v>204</v>
+      <c r="H42" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="K42" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="L42" s="5">
         <v>0.8</v>
       </c>
-      <c r="O42" t="s">
-        <v>202</v>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
       <c r="T42" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>208</v>
+      <c r="B43" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D43" s="16"/>
-      <c r="E43" t="s">
-        <v>235</v>
+      <c r="E43" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
-      <c r="H43" t="s">
-        <v>155</v>
+      <c r="H43" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>172</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="K43" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="L43" s="5">
         <v>0.8</v>
       </c>
-      <c r="O43" t="s">
-        <v>205</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="T43" t="s">
-        <v>209</v>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>210</v>
+      <c r="B44" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="E44" t="s">
-        <v>236</v>
+      <c r="E44" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="L44" s="5">
         <v>0.8</v>
       </c>
-      <c r="O44" t="s">
+      <c r="M44">
+        <v>100</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45">
+        <v>1.2</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46">
+        <v>1.2</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K47" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D48" s="16"/>
+      <c r="O48" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="I49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="O49" t="s">
+        <v>179</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K50" t="s">
+        <v>161</v>
+      </c>
+      <c r="L50">
+        <v>1.2</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>179</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="O51" t="s">
+        <v>179</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s">
+        <v>161</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="O52" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>188</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>193</v>
       </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="T44" t="s">
-        <v>211</v>
+      <c r="C54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>191</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="O54" t="s">
+        <v>188</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="O55" t="s">
+        <v>185</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" t="s">
+        <v>161</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="O56" t="s">
+        <v>194</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s">
+        <v>161</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="O57" t="s">
+        <v>197</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58" t="s">
+        <v>196</v>
+      </c>
+      <c r="I58" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58" t="s">
+        <v>161</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
+      </c>
+      <c r="O58" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB03DD8A-7CBA-4F37-BB9D-B0C35877BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314AE19-3424-49CB-93BF-FE3ED02BADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="945" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18435" yWindow="1020" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="307">
   <si>
     <t>##var</t>
   </si>
@@ -446,9 +446,6 @@
     <t>甘的礼物</t>
   </si>
   <si>
-    <t>老师</t>
-  </si>
-  <si>
     <t>思念</t>
   </si>
   <si>
@@ -704,334 +701,459 @@
     <t>flag_1030</t>
   </si>
   <si>
+    <t>flag_1031</t>
+  </si>
+  <si>
+    <t>flag_1032</t>
+  </si>
+  <si>
+    <t>char_1033</t>
+  </si>
+  <si>
+    <t>校霸</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>flag_1033</t>
+  </si>
+  <si>
+    <t>char_1034</t>
+  </si>
+  <si>
+    <t>flag_1034</t>
+  </si>
+  <si>
+    <t>char_1035</t>
+  </si>
+  <si>
+    <t>混混</t>
+  </si>
+  <si>
+    <t>flag_1035</t>
+  </si>
+  <si>
+    <t>char_1036</t>
+  </si>
+  <si>
+    <t>flag_1036</t>
+  </si>
+  <si>
+    <t>char_1037</t>
+  </si>
+  <si>
+    <t>flag_1037</t>
+  </si>
+  <si>
+    <t>char_1038</t>
+  </si>
+  <si>
+    <t>flag_1038</t>
+  </si>
+  <si>
+    <t>char_icon_1007</t>
+  </si>
+  <si>
+    <t>char_icon_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1013</t>
+  </si>
+  <si>
+    <t>char_1014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1014</t>
+  </si>
+  <si>
+    <t>char_icon_1015</t>
+  </si>
+  <si>
+    <t>char_icon_1023</t>
+  </si>
+  <si>
+    <t>char_icon_1024</t>
+  </si>
+  <si>
+    <t>char_icon_1025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维蒙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>威奥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1033</t>
+  </si>
+  <si>
+    <t>char_icon_1034</t>
+  </si>
+  <si>
+    <t>char_icon_1035</t>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+  </si>
+  <si>
+    <t>游乐园工作人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10232</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1019</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame_size#default=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框的大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1003</t>
+  </si>
+  <si>
+    <t>疏远</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1011,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1010,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1012,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1013,flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二舅妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1018</t>
+  </si>
+  <si>
+    <t>char_1004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_1010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>园友</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005,flag10030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag10030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1003,flag10030,flag10031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸，为什么你要离开我们？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1088</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_901</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1042</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1041,flag_10410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爹妈都要有，才能走到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈的朋友</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>园长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有希望和好的爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经是陌生人的爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前的爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思念</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有妈的根，但有爹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有爹的根，但有妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1040</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅妈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1043</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷尔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈……可以再呆一会吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷爷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要像个大人一样坚强。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_1036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1042,flag_10420,flag_10410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1043,flag_10420,flag_10410</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_10410</t>
+  </si>
+  <si>
+    <t>和爷爷约定了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>char_1031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1031,flag_10310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1032,flag_10310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10312</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_10322</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1031</t>
-  </si>
-  <si>
-    <t>flag_1032</t>
-  </si>
-  <si>
-    <t>char_1033</t>
-  </si>
-  <si>
-    <t>校霸</t>
-  </si>
-  <si>
-    <t>讨厌</t>
-  </si>
-  <si>
-    <t>flag_1033</t>
-  </si>
-  <si>
-    <t>char_1034</t>
-  </si>
-  <si>
-    <t>flag_1034</t>
-  </si>
-  <si>
-    <t>char_1035</t>
-  </si>
-  <si>
-    <t>混混</t>
-  </si>
-  <si>
-    <t>flag_1035</t>
-  </si>
-  <si>
-    <t>char_1036</t>
-  </si>
-  <si>
-    <t>flag_1036</t>
-  </si>
-  <si>
-    <t>char_1037</t>
-  </si>
-  <si>
-    <t>flag_1037</t>
-  </si>
-  <si>
-    <t>char_1038</t>
-  </si>
-  <si>
-    <t>flag_1038</t>
-  </si>
-  <si>
-    <t>char_icon_1007</t>
-  </si>
-  <si>
-    <t>char_icon_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_9001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1013</t>
-  </si>
-  <si>
-    <t>char_1014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1014</t>
-  </si>
-  <si>
-    <t>char_icon_1015</t>
-  </si>
-  <si>
-    <t>char_icon_1023</t>
-  </si>
-  <si>
-    <t>char_icon_1024</t>
-  </si>
-  <si>
-    <t>char_icon_1025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗恩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>托尼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>维蒙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>威奥</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1033</t>
-  </si>
-  <si>
-    <t>char_icon_1034</t>
-  </si>
-  <si>
-    <t>char_icon_1035</t>
-  </si>
-  <si>
-    <t>char_icon_1036</t>
-  </si>
-  <si>
-    <t>游乐园工作人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_10232</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1019</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>frame_size#default=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>框的大小</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1003</t>
-  </si>
-  <si>
-    <t>疏远</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1011,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1010,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1012,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1013,flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二舅妈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1018</t>
-  </si>
-  <si>
-    <t>char_1004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_1010</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_icon_1030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>妈妈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>园友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1005,flag10030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag10030</t>
-  </si>
-  <si>
-    <t>flag10030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1003,flag10030,flag10031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag10031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸爸，为什么你要离开我们？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸，你回来了</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>flag_1009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1088</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_901</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1040</t>
-  </si>
-  <si>
-    <t>char_1040</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤感</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>陌生人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1042</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_1005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1041,flag_10410</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_1042,flag_10410</t>
+  </si>
+  <si>
+    <t>如果园长被且，自己被切一次，自己还会出现一次.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意单亲都走这里。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1269,6 +1391,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1546,16 +1669,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="7" width="6.625" customWidth="1"/>
     <col min="8" max="11" width="12.625" customWidth="1"/>
@@ -1599,7 +1723,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>88</v>
@@ -1652,7 +1776,7 @@
         <v>81</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
@@ -1797,7 +1921,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -1809,10 +1933,10 @@
         <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>87</v>
@@ -1824,14 +1948,14 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1840,52 +1964,50 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
         <v>90</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
+      <c r="H8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="L8">
         <v>0.6</v>
       </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1897,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1906,20 +2028,26 @@
       <c r="D9" s="16"/>
       <c r="E9" s="5"/>
       <c r="O9" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
       </c>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1928,31 +2056,31 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1961,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>92</v>
@@ -1970,25 +2098,27 @@
         <v>0.8</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>271</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2006,7 +2136,7 @@
         <v>0.6</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -2018,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2029,7 +2159,7 @@
       <c r="I13" s="5"/>
       <c r="L13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -2040,207 +2170,171 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="O14" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
+      <c r="D17" s="16"/>
+      <c r="E17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>0.7</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>30</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>200</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L18">
-        <v>0.7</v>
-      </c>
-      <c r="O18" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>267</v>
-      </c>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="16"/>
       <c r="E19" s="5"/>
-      <c r="O19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
+      <c r="I19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>275</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L20">
         <v>0.7</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>267</v>
+      <c r="O20" t="s">
+        <v>155</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2248,850 +2342,522 @@
       <c r="R20" t="b">
         <v>0</v>
       </c>
-      <c r="S20">
-        <v>35</v>
-      </c>
       <c r="T20" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="16"/>
       <c r="E21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22">
+        <v>0.7</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>25</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
       <c r="D23" s="16"/>
       <c r="E23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="O23" s="5"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L24">
+        <v>0.8</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
       <c r="D25" s="16"/>
       <c r="E25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>100</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
-        <v>159</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>158</v>
+        <v>269</v>
+      </c>
+      <c r="L27">
+        <v>0.7</v>
+      </c>
+      <c r="O27" t="s">
+        <v>150</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
       <c r="T27" s="5" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>176</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28">
-        <v>1.2</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
-      <c r="T28" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>155</v>
-      </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29">
-        <v>1.2</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
       <c r="O29" s="5" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
-      <c r="T29" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>162</v>
+        <v>283</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>139</v>
+      <c r="I30" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="L30">
-        <v>0.8</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>128</v>
+        <v>0.7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31">
-        <v>0.8</v>
-      </c>
-      <c r="M31">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S31">
-        <v>5</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="E31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M32">
-        <v>100</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
-      <c r="Q32" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>306</v>
+      </c>
       <c r="E33" s="5" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="I33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M33">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33">
+        <v>0.8</v>
       </c>
       <c r="O33" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
       <c r="T33" s="5" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="I34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M34">
-        <v>100</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="E34" s="5"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>155</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L35">
-        <v>1.2</v>
-      </c>
-      <c r="M35">
-        <v>100</v>
-      </c>
-      <c r="O35" t="s">
-        <v>129</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="E35" s="5"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="I36" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M36">
-        <v>100</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>1</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>305</v>
+      </c>
       <c r="E37" s="5" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I37" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" t="s">
-        <v>146</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>100</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>246</v>
+        <v>303</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>304</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
       <c r="T37" s="5" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L38" s="5">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>100</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
-      <c r="T38" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" t="s">
-        <v>114</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>100</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="E39" s="5"/>
+      <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" t="s">
-        <v>114</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>100</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="E40" s="5"/>
+      <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K41" t="s">
-        <v>138</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M41">
-        <v>100</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41" t="b">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="E41" s="5"/>
+      <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" t="s">
-        <v>138</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M42">
-        <v>100</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <v>5</v>
-      </c>
-      <c r="T42" t="s">
-        <v>137</v>
-      </c>
+      <c r="E42" s="5"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>216</v>
+        <v>241</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>100</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="I43" t="s">
-        <v>172</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" s="5">
+        <v>92</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="L43">
         <v>0.8</v>
       </c>
       <c r="M43">
         <v>100</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="T43" s="5" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="5" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K44" t="s">
-        <v>138</v>
+      <c r="K44" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="L44" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>100</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -3100,11 +2866,9 @@
         <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
-      </c>
-      <c r="K45" t="s">
-        <v>144</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K45" s="5"/>
       <c r="L45">
         <v>1.2</v>
       </c>
@@ -3112,28 +2876,28 @@
         <v>100</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -3141,11 +2905,11 @@
       <c r="H46" t="s">
         <v>95</v>
       </c>
-      <c r="I46" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46" t="s">
-        <v>144</v>
+      <c r="I46" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="L46">
         <v>1.2</v>
@@ -3154,24 +2918,25 @@
         <v>100</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
+      <c r="T46" s="5" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>177</v>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D47" s="16"/>
       <c r="E47" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3179,47 +2944,83 @@
       <c r="G47">
         <v>100</v>
       </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
       <c r="I47" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47">
+        <v>0.8</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
         <v>104</v>
       </c>
-      <c r="K47" t="s">
-        <v>152</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48">
         <v>0.8</v>
       </c>
-      <c r="M47">
-        <v>100</v>
-      </c>
-      <c r="O47" t="s">
-        <v>137</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D48" s="16"/>
-      <c r="O48" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="O48" t="s">
+        <v>127</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>180</v>
+      <c r="B49" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3227,11 +3028,14 @@
       <c r="G49">
         <v>100</v>
       </c>
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
       <c r="I49" t="s">
-        <v>181</v>
-      </c>
-      <c r="K49" t="s">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="L49" s="5">
         <v>0.8</v>
@@ -3239,8 +3043,8 @@
       <c r="M49">
         <v>100</v>
       </c>
-      <c r="O49" t="s">
-        <v>179</v>
+      <c r="O49" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -3248,20 +3052,23 @@
       <c r="Q49" t="b">
         <v>1</v>
       </c>
-      <c r="T49" t="s">
-        <v>182</v>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>155</v>
+      <c r="B50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="5" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3269,41 +3076,35 @@
       <c r="G50">
         <v>100</v>
       </c>
-      <c r="H50" t="s">
-        <v>95</v>
-      </c>
       <c r="I50" t="s">
-        <v>184</v>
-      </c>
-      <c r="K50" t="s">
-        <v>161</v>
-      </c>
-      <c r="L50">
-        <v>1.2</v>
+        <v>92</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.7</v>
       </c>
       <c r="M50">
         <v>100</v>
       </c>
       <c r="O50" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
-      <c r="T50" t="s">
-        <v>185</v>
+      <c r="T50" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>186</v>
+      <c r="B51" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3311,41 +3112,41 @@
       <c r="G51">
         <v>100</v>
       </c>
-      <c r="H51" t="s">
-        <v>91</v>
-      </c>
       <c r="I51" t="s">
-        <v>102</v>
-      </c>
-      <c r="K51" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="L51" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M51">
         <v>100</v>
       </c>
-      <c r="O51" t="s">
-        <v>179</v>
+      <c r="O51" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
-      <c r="T51" t="s">
-        <v>187</v>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>218</v>
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3354,40 +3155,43 @@
         <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
-      </c>
-      <c r="K52" t="s">
-        <v>161</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0.8</v>
+        <v>108</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52">
+        <v>1.2</v>
       </c>
       <c r="M52">
         <v>100</v>
       </c>
       <c r="O52" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
-      <c r="T52" t="s">
-        <v>188</v>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>219</v>
+      <c r="B53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
       </c>
       <c r="D53" s="16"/>
-      <c r="E53" t="s">
-        <v>225</v>
+      <c r="E53" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3395,11 +3199,8 @@
       <c r="G53">
         <v>100</v>
       </c>
-      <c r="H53" t="s">
-        <v>190</v>
-      </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="L53" s="5">
         <v>0.8</v>
@@ -3407,26 +3208,29 @@
       <c r="M53">
         <v>100</v>
       </c>
-      <c r="O53" t="s">
-        <v>188</v>
+      <c r="O53" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
-      <c r="T53" t="s">
-        <v>192</v>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>220</v>
+      <c r="B54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" t="s">
-        <v>226</v>
+      <c r="E54" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3434,161 +3238,158 @@
       <c r="G54">
         <v>100</v>
       </c>
-      <c r="H54" t="s">
-        <v>150</v>
+      <c r="H54" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I54" t="s">
-        <v>191</v>
+        <v>92</v>
+      </c>
+      <c r="K54" t="s">
+        <v>145</v>
       </c>
       <c r="L54" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>100</v>
       </c>
-      <c r="O54" t="s">
-        <v>188</v>
+      <c r="O54" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
-      <c r="T54" t="s">
-        <v>194</v>
+      <c r="T54" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>221</v>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" t="s">
-        <v>227</v>
+      <c r="E55" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>100</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L55" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>100</v>
       </c>
-      <c r="O55" t="s">
-        <v>185</v>
+      <c r="O55" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
-      <c r="T55" t="s">
-        <v>197</v>
+      <c r="T55" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>220</v>
+      <c r="B56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" t="s">
-        <v>226</v>
+      <c r="E56" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>100</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="L56" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>100</v>
       </c>
-      <c r="O56" t="s">
-        <v>194</v>
+      <c r="O56" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
-      <c r="T56" t="s">
-        <v>199</v>
+      <c r="T56" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>200</v>
+      <c r="B57" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" t="s">
-        <v>227</v>
+      <c r="E57" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
-      </c>
-      <c r="K57" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="L57" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>100</v>
       </c>
-      <c r="O57" t="s">
-        <v>197</v>
+      <c r="O57" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
-      <c r="T57" t="s">
-        <v>201</v>
+      <c r="T57" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>222</v>
+      <c r="B58" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
       </c>
       <c r="D58" s="16"/>
-      <c r="E58" t="s">
-        <v>228</v>
+      <c r="E58" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3596,14 +3397,17 @@
       <c r="G58">
         <v>100</v>
       </c>
-      <c r="H58" t="s">
-        <v>196</v>
+      <c r="H58" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="I58" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L58" s="5">
         <v>0.8</v>
@@ -3611,14 +3415,688 @@
       <c r="M58">
         <v>100</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M59">
+        <v>100</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M60">
+        <v>100</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s">
+        <v>137</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M61">
+        <v>100</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s">
+        <v>143</v>
+      </c>
+      <c r="L62">
+        <v>1.2</v>
+      </c>
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63">
+        <v>1.2</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="O64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D65" s="16"/>
+      <c r="O65" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="I66" t="s">
+        <v>180</v>
+      </c>
+      <c r="K66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M66">
+        <v>100</v>
+      </c>
+      <c r="O66" t="s">
+        <v>178</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
+      </c>
+      <c r="L67">
+        <v>1.2</v>
+      </c>
+      <c r="M67">
+        <v>100</v>
+      </c>
+      <c r="O67" t="s">
+        <v>178</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+      <c r="K68" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M68">
+        <v>100</v>
+      </c>
+      <c r="O68" t="s">
+        <v>178</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
         <v>185</v>
       </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="T58" t="s">
-        <v>203</v>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M69">
+        <v>100</v>
+      </c>
+      <c r="O69" t="s">
+        <v>184</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70" t="s">
+        <v>188</v>
+      </c>
+      <c r="I70" t="s">
+        <v>189</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M70">
+        <v>100</v>
+      </c>
+      <c r="O70" t="s">
+        <v>186</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" t="s">
+        <v>189</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M71">
+        <v>100</v>
+      </c>
+      <c r="O71" t="s">
+        <v>186</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72" t="s">
+        <v>194</v>
+      </c>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M72">
+        <v>100</v>
+      </c>
+      <c r="O72" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73" t="s">
+        <v>194</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s">
+        <v>160</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M73">
+        <v>100</v>
+      </c>
+      <c r="O73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74" t="s">
+        <v>149</v>
+      </c>
+      <c r="I74" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74" t="s">
+        <v>160</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M74">
+        <v>100</v>
+      </c>
+      <c r="O74" t="s">
+        <v>195</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75" t="s">
+        <v>194</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" t="s">
+        <v>160</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M75">
+        <v>100</v>
+      </c>
+      <c r="O75" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/character.xlsx
+++ b/LubanConfig/Datas/character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C314AE19-3424-49CB-93BF-FE3ED02BADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27D532-65C4-44A9-86E8-9B88702515C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="1020" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1320" yWindow="390" windowWidth="30975" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="397">
   <si>
     <t>##var</t>
   </si>
@@ -1019,10 +1019,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>妈妈的朋友</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>关注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1035,14 +1031,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>已经是陌生人的爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前的爸爸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>思念</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1149,11 +1137,361 @@
     <t>flag_1009</t>
   </si>
   <si>
-    <t>如果园长被且，自己被切一次，自己还会出现一次.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意单亲都走这里。</t>
+    <t>妈妈很在意的人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经是陌生人的爸爸，隔绝和好的可能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果园长被切，自己被切一次，自己还会出现一次.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不被切掉，还有转机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被切掉，父亲就不来参加游乐园事件了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1060</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游乐园事件，任意爹妈疏远会有这个事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟父亲的话，警察会出现，然后是母亲，然后是和好。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟母亲的话，舅妈会出现，然后是父亲，然后是和好。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果未踏险境，舅舅直接出现，就和舅舅好</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么跟着我……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1005,flag10030,flag_1051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意单亲都必然走这里。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1044</t>
+  </si>
+  <si>
+    <t>char_1061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1062</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开我！！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被深入抓走</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_10600</t>
+  </si>
+  <si>
+    <t>flag_10600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1062</t>
+  </si>
+  <si>
+    <t>flag_1062</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1063</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>救救我……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔溃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸，妈妈，你们在哪？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1063</t>
+  </si>
+  <si>
+    <t>flag_1063</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1064</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅妈！！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果把_1063砍掉，那么就走舅妈线，不然以1063为基础，走任意两个线。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太好了……得救了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1064</t>
+  </si>
+  <si>
+    <t>flag_1064</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1065</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不把_1063砍掉，1063就那会根据父和母来判断</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1066</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1065</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1066</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>父警：察</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴拉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>母：舅妈，然后是爸爸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍掉线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_10420</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1041</t>
+  </si>
+  <si>
+    <t>flag_1071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1072</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1072</t>
+  </si>
+  <si>
+    <t>flag_1072</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想你……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_902</t>
+  </si>
+  <si>
+    <t>char_1073</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1082</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅舅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1073,flag_10730</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1082,flag_10730</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘，你知道吗……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_10730</t>
+  </si>
+  <si>
+    <t>flag_1083</t>
+  </si>
+  <si>
+    <t>flag_1083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_10310</t>
+  </si>
+  <si>
+    <t>被救下后和甘的讲述这个事迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗恩</t>
+  </si>
+  <si>
+    <t>char_icon_1032</t>
+  </si>
+  <si>
+    <t>托尼</t>
+  </si>
+  <si>
+    <t>维蒙</t>
+  </si>
+  <si>
+    <t>威奥</t>
+  </si>
+  <si>
+    <t>卡尔</t>
+  </si>
+  <si>
+    <t>char_1067</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1068</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1069</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_1070</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1067</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1068</t>
+  </si>
+  <si>
+    <t>flag_1070</t>
+  </si>
+  <si>
+    <t>effect_903</t>
+  </si>
+  <si>
+    <t>effect_904</t>
+  </si>
+  <si>
+    <t>flag_1069</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_icon_9001</t>
+  </si>
+  <si>
+    <t>char_icon_9002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1060,flag_10600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_1061,flag_10600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我上次去游乐园玩，差点出大事，还好……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉的陌生人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1669,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1682,7 +2020,9 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="11" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="6.625" customWidth="1"/>
     <col min="13" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="20" width="12.625" customWidth="1"/>
@@ -1985,23 +2325,26 @@
         <v>246</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
         <v>126</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>273</v>
+      <c r="K8" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="L8">
         <v>0.6</v>
@@ -2039,116 +2382,85 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>249</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="P11" t="b">
+        <v>230</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>271</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="5" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>100</v>
+      <c r="H12" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L12" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2156,76 +2468,78 @@
       <c r="C13" s="5"/>
       <c r="D13" s="16"/>
       <c r="E13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="L13" s="5"/>
       <c r="O13" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="O15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="O14" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>5</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
@@ -2233,17 +2547,24 @@
       <c r="D16" s="16"/>
       <c r="E16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
@@ -2255,27 +2576,27 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>270</v>
+      <c r="H17" t="s">
+        <v>158</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5">
         <v>0.7</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -2286,187 +2607,187 @@
       <c r="I18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="O18" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="P18" t="b">
+      <c r="O18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>30</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="P20" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>200</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="L20">
-        <v>0.7</v>
-      </c>
-      <c r="O20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="16"/>
       <c r="E21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="O21" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L23">
+        <v>0.7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="5"/>
+      <c r="O24" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" t="b">
-        <v>1</v>
-      </c>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="H25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="L22">
+      <c r="L25">
         <v>0.7</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>25</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="L24">
-        <v>0.8</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" t="b">
-        <v>1</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="O25" t="s">
-        <v>150</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2474,7 +2795,12 @@
       <c r="R25" t="b">
         <v>0</v>
       </c>
-      <c r="T25" s="5"/>
+      <c r="S25">
+        <v>25</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
@@ -2482,23 +2808,29 @@
       <c r="E26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2507,13 +2839,16 @@
         <v>282</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L27">
-        <v>0.7</v>
-      </c>
-      <c r="O27" t="s">
-        <v>150</v>
+        <v>0.8</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2522,16 +2857,17 @@
         <v>1</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
       <c r="D28" s="16"/>
       <c r="E28" s="5"/>
-      <c r="O28" s="5" t="s">
-        <v>258</v>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="O28" t="s">
+        <v>150</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2542,25 +2878,25 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
       <c r="D29" s="16"/>
-      <c r="O29" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="16"/>
+        <v>263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -2568,8 +2904,8 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>104</v>
+      <c r="H30" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>269</v>
@@ -2587,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
@@ -2607,30 +2943,20 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
+      <c r="O32" s="5"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>306</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -2638,29 +2964,26 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>286</v>
+      <c r="H33" t="s">
+        <v>104</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33">
+        <v>0.7</v>
+      </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="L33">
-        <v>0.8</v>
-      </c>
-      <c r="O33" t="s">
-        <v>291</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
@@ -2668,6 +2991,15 @@
       <c r="C34" s="5"/>
       <c r="D34" s="16"/>
       <c r="E34" s="5"/>
+      <c r="O34" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
@@ -2675,73 +3007,65 @@
       <c r="C35" s="5"/>
       <c r="D35" s="16"/>
       <c r="E35" s="5"/>
+      <c r="O35" s="5"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36">
+        <v>0.8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>288</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>304</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="R37" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>4</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>249</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="5"/>
+      <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="16"/>
       <c r="E38" s="5"/>
-      <c r="O38" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38" t="b">
-        <v>0</v>
-      </c>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
@@ -2752,1350 +3076,2409 @@
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>301</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="16" t="s">
+        <v>305</v>
+      </c>
       <c r="E41" s="5"/>
+      <c r="O41" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="16" t="s">
+        <v>306</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="I43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="L43">
-        <v>0.8</v>
-      </c>
-      <c r="M43">
-        <v>100</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="E43" s="5"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="16"/>
+        <v>312</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="E44" s="5" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G44">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>100</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>157</v>
+        <v>313</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44">
+        <v>0.7</v>
+      </c>
+      <c r="O44" t="s">
+        <v>318</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
       <c r="T44" s="5" t="s">
-        <v>159</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-      <c r="H45" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" t="s">
-        <v>101</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45">
-        <v>1.2</v>
-      </c>
-      <c r="M45">
-        <v>100</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L46">
-        <v>1.2</v>
-      </c>
-      <c r="M46">
-        <v>100</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>235</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-      <c r="H47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47">
-        <v>0.8</v>
-      </c>
-      <c r="M47">
-        <v>100</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>237</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>162</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-      <c r="H48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" t="s">
-        <v>103</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L48">
-        <v>0.8</v>
-      </c>
-      <c r="M48">
-        <v>100</v>
-      </c>
-      <c r="O48" t="s">
-        <v>127</v>
-      </c>
-      <c r="S48">
-        <v>5</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="16"/>
+        <v>319</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="E49" s="5" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>100</v>
-      </c>
-      <c r="H49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I49" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M49">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L49">
+        <v>0.7</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
-      <c r="Q49" t="b">
-        <v>1</v>
-      </c>
       <c r="R49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>129</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M50">
-        <v>100</v>
-      </c>
-      <c r="O50" t="s">
-        <v>153</v>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-      <c r="I51" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M51">
-        <v>100</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>3</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L52">
-        <v>1.2</v>
-      </c>
-      <c r="M52">
-        <v>100</v>
-      </c>
-      <c r="O52" t="s">
-        <v>128</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="R52" t="b">
-        <v>0</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="I53" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M53">
-        <v>100</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>1</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="E53" s="5"/>
+      <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="16"/>
+        <v>320</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="E54" s="5" t="s">
-        <v>229</v>
+        <v>392</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I54" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" t="s">
-        <v>145</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>100</v>
+        <v>321</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L54">
+        <v>0.6</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
       <c r="T54" s="5" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>100</v>
-      </c>
-      <c r="H55" t="s">
-        <v>112</v>
-      </c>
-      <c r="I55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>100</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="E55" s="5"/>
+      <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="E56" s="5" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="L56">
+        <v>0.6</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56">
         <v>2</v>
       </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-      <c r="H56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I56" t="s">
-        <v>113</v>
-      </c>
-      <c r="L56" s="5">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>100</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
       <c r="T56" s="5" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-      <c r="H57" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" t="s">
-        <v>113</v>
-      </c>
-      <c r="L57" s="5">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>100</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>135</v>
+      <c r="E57" s="5"/>
+      <c r="O57" t="s">
+        <v>337</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>100</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I58" t="s">
-        <v>92</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58" t="s">
-        <v>137</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M58">
-        <v>100</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="R58" t="b">
-        <v>0</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="E58" s="5"/>
+      <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="16"/>
+        <v>161</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>335</v>
+      </c>
       <c r="E59" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59" t="s">
-        <v>137</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M59">
-        <v>100</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>133</v>
+        <v>336</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L59">
+        <v>0.7</v>
+      </c>
+      <c r="O59" t="s">
+        <v>331</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
-      <c r="S59">
-        <v>5</v>
-      </c>
-      <c r="T59" t="s">
-        <v>136</v>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>100</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" t="s">
-        <v>171</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60" t="s">
-        <v>137</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M60">
-        <v>100</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>100</v>
-      </c>
-      <c r="H61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K61" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M61">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L61">
+        <v>0.7</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>172</v>
+        <v>338</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" t="s">
-        <v>175</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>100</v>
-      </c>
-      <c r="H62" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" t="s">
-        <v>143</v>
-      </c>
-      <c r="L62">
-        <v>1.2</v>
-      </c>
-      <c r="M62">
-        <v>100</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="T62" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="E62" s="5"/>
+      <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" t="s">
-        <v>154</v>
+        <v>342</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="5" t="s">
-        <v>204</v>
+        <v>376</v>
       </c>
       <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="L63">
+        <v>0.8</v>
+      </c>
+      <c r="O63" t="s">
+        <v>337</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63">
         <v>2</v>
       </c>
-      <c r="G63">
-        <v>100</v>
-      </c>
-      <c r="H63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63" t="s">
-        <v>143</v>
-      </c>
-      <c r="L63">
-        <v>1.2</v>
-      </c>
-      <c r="M63">
-        <v>100</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
+      <c r="T63" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B64" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D64" s="16"/>
       <c r="E64" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>188</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
-      </c>
-      <c r="K64" t="s">
-        <v>151</v>
-      </c>
-      <c r="L64" s="5">
+        <v>189</v>
+      </c>
+      <c r="L64">
         <v>0.8</v>
       </c>
-      <c r="M64">
-        <v>100</v>
-      </c>
-      <c r="O64" t="s">
-        <v>136</v>
+      <c r="O64" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
-        <v>178</v>
+        <v>1</v>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="D65" s="16"/>
+      <c r="E65" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" t="s">
+        <v>189</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="L65">
+        <v>0.8</v>
+      </c>
       <c r="O65" s="5" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
+      <c r="B66" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="5" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>194</v>
       </c>
       <c r="I66" t="s">
-        <v>180</v>
-      </c>
-      <c r="K66" t="s">
-        <v>151</v>
-      </c>
-      <c r="L66" s="5">
+        <v>94</v>
+      </c>
+      <c r="L66">
         <v>0.8</v>
       </c>
-      <c r="M66">
-        <v>100</v>
-      </c>
-      <c r="O66" t="s">
-        <v>178</v>
+      <c r="O66" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
-      <c r="Q66" t="b">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s">
-        <v>181</v>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" t="s">
-        <v>154</v>
+      <c r="B67" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="5" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I67" t="s">
-        <v>183</v>
-      </c>
-      <c r="K67" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="L67">
-        <v>1.2</v>
-      </c>
-      <c r="M67">
-        <v>100</v>
-      </c>
-      <c r="O67" t="s">
-        <v>178</v>
+        <v>0.8</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
-      <c r="T67" t="s">
-        <v>184</v>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" t="s">
-        <v>175</v>
-      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-      <c r="H68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" t="s">
-        <v>101</v>
-      </c>
-      <c r="K68" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M68">
-        <v>100</v>
-      </c>
-      <c r="O68" t="s">
-        <v>178</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="T68" t="s">
-        <v>185</v>
-      </c>
+      <c r="E68" s="5"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B69" s="5"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>100</v>
-      </c>
-      <c r="H69" t="s">
-        <v>97</v>
-      </c>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-      <c r="K69" t="s">
-        <v>160</v>
-      </c>
-      <c r="L69" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M69">
-        <v>100</v>
-      </c>
-      <c r="O69" t="s">
-        <v>184</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="T69" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="16"/>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>100</v>
-      </c>
-      <c r="H70" t="s">
-        <v>188</v>
-      </c>
-      <c r="I70" t="s">
-        <v>189</v>
-      </c>
-      <c r="L70" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M70">
-        <v>100</v>
-      </c>
-      <c r="O70" t="s">
-        <v>186</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="T70" t="s">
-        <v>190</v>
-      </c>
+      <c r="E70" s="5"/>
+      <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="16"/>
-      <c r="E71" t="s">
-        <v>224</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>100</v>
-      </c>
-      <c r="H71" t="s">
-        <v>149</v>
-      </c>
-      <c r="I71" t="s">
-        <v>189</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M71">
-        <v>100</v>
-      </c>
-      <c r="O71" t="s">
-        <v>186</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="T71" t="s">
-        <v>192</v>
-      </c>
+      <c r="E71" s="5"/>
+      <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="16"/>
-      <c r="E72" t="s">
-        <v>225</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>100</v>
-      </c>
-      <c r="H72" t="s">
-        <v>194</v>
-      </c>
-      <c r="I72" t="s">
-        <v>94</v>
-      </c>
-      <c r="L72" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M72">
-        <v>100</v>
-      </c>
-      <c r="O72" t="s">
-        <v>184</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="T72" t="s">
-        <v>195</v>
-      </c>
+      <c r="E72" s="5"/>
+      <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>196</v>
+      <c r="B73" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" t="s">
-        <v>224</v>
+        <v>341</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G73">
-        <v>100</v>
-      </c>
-      <c r="H73" t="s">
-        <v>194</v>
-      </c>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-      <c r="K73" t="s">
-        <v>160</v>
-      </c>
-      <c r="L73" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M73">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L73">
+        <v>0.7</v>
       </c>
       <c r="O73" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
-      <c r="T73" t="s">
-        <v>197</v>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" t="s">
-        <v>225</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>100</v>
-      </c>
-      <c r="H74" t="s">
-        <v>149</v>
-      </c>
-      <c r="I74" t="s">
-        <v>90</v>
-      </c>
-      <c r="K74" t="s">
-        <v>160</v>
-      </c>
-      <c r="L74" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M74">
-        <v>100</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" s="5"/>
       <c r="O74" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
-      <c r="T74" t="s">
-        <v>199</v>
-      </c>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>220</v>
+      <c r="B75" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="5" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G75">
-        <v>100</v>
-      </c>
-      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J75" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L75">
+        <v>0.8</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76">
+        <v>0.8</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="5"/>
+      <c r="O77" t="s">
+        <v>358</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="5"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>331</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="O80" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81">
+        <v>0.8</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="5"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>370</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="5"/>
+      <c r="O85" t="s">
+        <v>373</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="5"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="5"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="5"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="5"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="5"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="5"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="I92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="L92">
+        <v>0.8</v>
+      </c>
+      <c r="M92">
+        <v>100</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93" t="s">
+        <v>158</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>100</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94">
+        <v>1.2</v>
+      </c>
+      <c r="M94">
+        <v>100</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L95">
+        <v>1.2</v>
+      </c>
+      <c r="M95">
+        <v>100</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I96" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L96">
+        <v>0.8</v>
+      </c>
+      <c r="M96">
+        <v>100</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97" t="s">
+        <v>104</v>
+      </c>
+      <c r="I97" t="s">
+        <v>103</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L97">
+        <v>0.8</v>
+      </c>
+      <c r="M97">
+        <v>100</v>
+      </c>
+      <c r="O97" t="s">
+        <v>127</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B98" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98" t="s">
+        <v>106</v>
+      </c>
+      <c r="I98" t="s">
+        <v>99</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M98">
+        <v>100</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="b">
+        <v>1</v>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="16"/>
+      <c r="E99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="I99" t="s">
+        <v>92</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M99">
+        <v>100</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="I100" t="s">
+        <v>103</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M100">
+        <v>100</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="E101" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101" t="s">
+        <v>95</v>
+      </c>
+      <c r="I101" t="s">
+        <v>108</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L101">
+        <v>1.2</v>
+      </c>
+      <c r="M101">
+        <v>100</v>
+      </c>
+      <c r="O101" t="s">
+        <v>128</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="R101" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="E102" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="I102" t="s">
+        <v>92</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M102">
+        <v>100</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s">
+        <v>145</v>
+      </c>
+      <c r="L103" s="5">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>100</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+      <c r="T103" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s">
+        <v>112</v>
+      </c>
+      <c r="I104" t="s">
+        <v>102</v>
+      </c>
+      <c r="L104" s="5">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>100</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P104" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B105" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="16"/>
+      <c r="E105" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105" t="s">
+        <v>112</v>
+      </c>
+      <c r="I105" t="s">
+        <v>113</v>
+      </c>
+      <c r="L105" s="5">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>100</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P105" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" t="s">
+        <v>113</v>
+      </c>
+      <c r="L106" s="5">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>100</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="T106" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B107" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="16"/>
+      <c r="E107" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I107" t="s">
+        <v>92</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K107" t="s">
+        <v>137</v>
+      </c>
+      <c r="L107" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M107">
+        <v>100</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="R107" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B108" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I108" t="s">
+        <v>92</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K108" t="s">
+        <v>137</v>
+      </c>
+      <c r="L108" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M108">
+        <v>100</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P108" t="b">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="16"/>
+      <c r="E109" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I109" t="s">
+        <v>171</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" t="s">
+        <v>137</v>
+      </c>
+      <c r="L109" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M109">
+        <v>100</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s">
+        <v>90</v>
+      </c>
+      <c r="K110" t="s">
+        <v>137</v>
+      </c>
+      <c r="L110" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M110">
+        <v>100</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" s="16"/>
+      <c r="E111" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111" t="s">
+        <v>91</v>
+      </c>
+      <c r="I111" t="s">
+        <v>101</v>
+      </c>
+      <c r="K111" t="s">
+        <v>143</v>
+      </c>
+      <c r="L111">
+        <v>1.2</v>
+      </c>
+      <c r="M111">
+        <v>100</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112" t="s">
+        <v>95</v>
+      </c>
+      <c r="I112" t="s">
+        <v>90</v>
+      </c>
+      <c r="K112" t="s">
+        <v>143</v>
+      </c>
+      <c r="L112">
+        <v>1.2</v>
+      </c>
+      <c r="M112">
+        <v>100</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="I113" t="s">
+        <v>103</v>
+      </c>
+      <c r="K113" t="s">
+        <v>151</v>
+      </c>
+      <c r="L113" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M113">
+        <v>100</v>
+      </c>
+      <c r="O113" t="s">
+        <v>136</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D114" s="16"/>
+      <c r="O114" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="16"/>
+      <c r="E115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="I115" t="s">
+        <v>180</v>
+      </c>
+      <c r="K115" t="s">
+        <v>151</v>
+      </c>
+      <c r="L115" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M115">
+        <v>100</v>
+      </c>
+      <c r="O115" t="s">
+        <v>178</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="b">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="16"/>
+      <c r="E116" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>95</v>
+      </c>
+      <c r="I116" t="s">
+        <v>183</v>
+      </c>
+      <c r="K116" t="s">
+        <v>160</v>
+      </c>
+      <c r="L116">
+        <v>1.2</v>
+      </c>
+      <c r="M116">
+        <v>100</v>
+      </c>
+      <c r="O116" t="s">
+        <v>178</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B117" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="16"/>
+      <c r="E117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117" t="s">
+        <v>91</v>
+      </c>
+      <c r="I117" t="s">
+        <v>101</v>
+      </c>
+      <c r="K117" t="s">
+        <v>139</v>
+      </c>
+      <c r="L117" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M117">
+        <v>100</v>
+      </c>
+      <c r="O117" t="s">
+        <v>178</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118" t="s">
+        <v>97</v>
+      </c>
+      <c r="I118" t="s">
+        <v>94</v>
+      </c>
+      <c r="K118" t="s">
+        <v>160</v>
+      </c>
+      <c r="L118" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M118">
+        <v>100</v>
+      </c>
+      <c r="O118" t="s">
+        <v>184</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" t="s">
+        <v>223</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119" t="s">
+        <v>188</v>
+      </c>
+      <c r="I119" t="s">
+        <v>189</v>
+      </c>
+      <c r="L119" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M119">
+        <v>100</v>
+      </c>
+      <c r="O119" t="s">
+        <v>186</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" s="16"/>
+      <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I120" t="s">
+        <v>189</v>
+      </c>
+      <c r="L120" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M120">
+        <v>100</v>
+      </c>
+      <c r="O120" t="s">
+        <v>186</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="16"/>
+      <c r="E121" t="s">
+        <v>225</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+      <c r="H121" t="s">
         <v>194</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I121" t="s">
+        <v>94</v>
+      </c>
+      <c r="L121" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M121">
+        <v>100</v>
+      </c>
+      <c r="O121" t="s">
+        <v>184</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="T121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122" t="s">
+        <v>194</v>
+      </c>
+      <c r="I122" t="s">
         <v>103</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K122" t="s">
         <v>160</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L122" s="5">
         <v>0.8</v>
       </c>
-      <c r="M75">
-        <v>100</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="M122">
+        <v>100</v>
+      </c>
+      <c r="O122" t="s">
+        <v>192</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="T122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="16"/>
+      <c r="E123" t="s">
+        <v>225</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123" t="s">
+        <v>149</v>
+      </c>
+      <c r="I123" t="s">
+        <v>90</v>
+      </c>
+      <c r="K123" t="s">
+        <v>160</v>
+      </c>
+      <c r="L123" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M123">
+        <v>100</v>
+      </c>
+      <c r="O123" t="s">
+        <v>195</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+      <c r="H124" t="s">
+        <v>194</v>
+      </c>
+      <c r="I124" t="s">
+        <v>103</v>
+      </c>
+      <c r="K124" t="s">
+        <v>160</v>
+      </c>
+      <c r="L124" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M124">
+        <v>100</v>
+      </c>
+      <c r="O124" t="s">
         <v>184</v>
       </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="T75" t="s">
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="T124" t="s">
         <v>201</v>
       </c>
     </row>
